--- a/media/repricing/repricingvendor216products.xlsx
+++ b/media/repricing/repricingvendor216products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="700">
   <si>
     <t>Fullfillment Information</t>
   </si>
@@ -128,7 +128,7 @@
     <t>675716748012</t>
   </si>
   <si>
-    <t>Pebble Beach DUVET&amp;DUVET SET</t>
+    <t>Seashell Bay 6 Piece Duvet Cover Set - Full/Queen</t>
   </si>
   <si>
     <t>JLMP134474</t>
@@ -164,7 +164,7 @@
     <t>675716998271</t>
   </si>
   <si>
-    <t>Finn COMFORTER (SET)</t>
+    <t>Shark Swim 5 Piece Comforter Set - Full/Queen</t>
   </si>
   <si>
     <t>JLFPF180165</t>
@@ -209,6 +209,156 @@
     <t>Ocean Breeze Comforter Set - Full</t>
   </si>
   <si>
+    <t>JLHH30706A</t>
+  </si>
+  <si>
+    <t>HH30-706A</t>
+  </si>
+  <si>
+    <t>Newbury Striped Pillow</t>
+  </si>
+  <si>
+    <t>JLMP503723</t>
+  </si>
+  <si>
+    <t>MP50-3723</t>
+  </si>
+  <si>
+    <t>675716847357</t>
+  </si>
+  <si>
+    <t>Seashell Bay Throw</t>
+  </si>
+  <si>
+    <t>JLWR101058</t>
+  </si>
+  <si>
+    <t>WR10-1058</t>
+  </si>
+  <si>
+    <t>675716482381</t>
+  </si>
+  <si>
+    <t>Woodsman Comforter Set - Full/Queen</t>
+  </si>
+  <si>
+    <t>JLHH10703</t>
+  </si>
+  <si>
+    <t>HH10-703</t>
+  </si>
+  <si>
+    <t>675716342449</t>
+  </si>
+  <si>
+    <t>Clamshell Comforter Set - King</t>
+  </si>
+  <si>
+    <t>JLID101122</t>
+  </si>
+  <si>
+    <t>ID10-1122</t>
+  </si>
+  <si>
+    <t>675716903879</t>
+  </si>
+  <si>
+    <t>Jungle Flower Comforter Set - Twin/Twin XL - OVERSTOCK</t>
+  </si>
+  <si>
+    <t>JLMP10526</t>
+  </si>
+  <si>
+    <t>MP10526</t>
+  </si>
+  <si>
+    <t>675716479909</t>
+  </si>
+  <si>
+    <t>Turquoise River Bed Set - King</t>
+  </si>
+  <si>
+    <t>JLMZ200541</t>
+  </si>
+  <si>
+    <t>MZ20-0541</t>
+  </si>
+  <si>
+    <t>675716917227</t>
+  </si>
+  <si>
+    <t>Whale Love Sheet Set - Queen</t>
+  </si>
+  <si>
+    <t>JLFB10992</t>
+  </si>
+  <si>
+    <t>FB10-992</t>
+  </si>
+  <si>
+    <t>675716619947</t>
+  </si>
+  <si>
+    <t>Cypress Falls Bed Set - King</t>
+  </si>
+  <si>
+    <t>JLFPF180166</t>
+  </si>
+  <si>
+    <t>FPF18-0166</t>
+  </si>
+  <si>
+    <t>Gramercy Chair - Tribal</t>
+  </si>
+  <si>
+    <t>JLII1300182</t>
+  </si>
+  <si>
+    <t>II130-0182</t>
+  </si>
+  <si>
+    <t>675716977795</t>
+  </si>
+  <si>
+    <t>Woodworker Two Door Accent Chest</t>
+  </si>
+  <si>
+    <t>JLMZK13112</t>
+  </si>
+  <si>
+    <t>MZK13-112</t>
+  </si>
+  <si>
+    <t>675716904630</t>
+  </si>
+  <si>
+    <t>Ocean Friends Coverlet Set - Twin</t>
+  </si>
+  <si>
+    <t>JLWR142236</t>
+  </si>
+  <si>
+    <t>WR14-2236</t>
+  </si>
+  <si>
+    <t>86569938541</t>
+  </si>
+  <si>
+    <t>Moose Grid Oversized 4 Piece Quilt Set - King/Cal King</t>
+  </si>
+  <si>
+    <t>JLHH101545</t>
+  </si>
+  <si>
+    <t>HH10-1545</t>
+  </si>
+  <si>
+    <t>675716736460</t>
+  </si>
+  <si>
+    <t>Sandy Reef Comforter Set - Queen</t>
+  </si>
+  <si>
     <t>JLMZ10513</t>
   </si>
   <si>
@@ -221,18 +371,6 @@
     <t>Coastal Flowers Comforter Set - Full/Queen</t>
   </si>
   <si>
-    <t>JLHH101545</t>
-  </si>
-  <si>
-    <t>HH10-1545</t>
-  </si>
-  <si>
-    <t>675716736460</t>
-  </si>
-  <si>
-    <t>Sandy Reef Comforter Set - Queen</t>
-  </si>
-  <si>
     <t>JLMPS163337</t>
   </si>
   <si>
@@ -242,7 +380,7 @@
     <t>86569012012</t>
   </si>
   <si>
-    <t>Forest BOXES &amp; BASKETS</t>
+    <t>Foil Tree Tray</t>
   </si>
   <si>
     <t>JLUHK130040</t>
@@ -254,7 +392,7 @@
     <t>675716998554</t>
   </si>
   <si>
-    <t>Finn COVERLET&amp;BEDSPR</t>
+    <t>Shark Swim 4 Piece Coverlet Set - Twin/Twin XL</t>
   </si>
   <si>
     <t>JLFPF180030</t>
@@ -275,7 +413,7 @@
     <t>675716228699</t>
   </si>
   <si>
-    <t>Coastline COMFORTER (SET)</t>
+    <t>Coastal Reef 4 Piece Bed Set - Cal King</t>
   </si>
   <si>
     <t>JLMP132710</t>
@@ -287,145 +425,16 @@
     <t>675716748043</t>
   </si>
   <si>
-    <t>Pebble Beach COVERLET&amp;BEDSPR</t>
-  </si>
-  <si>
-    <t>JLHH30706A</t>
-  </si>
-  <si>
-    <t>HH30-706A</t>
-  </si>
-  <si>
-    <t>Newbury Striped Pillow</t>
-  </si>
-  <si>
-    <t>JLWR101058</t>
-  </si>
-  <si>
-    <t>WR10-1058</t>
-  </si>
-  <si>
-    <t>675716482381</t>
-  </si>
-  <si>
-    <t>Woodsman Comforter Set - Full/Queen</t>
-  </si>
-  <si>
-    <t>JLMP503723</t>
-  </si>
-  <si>
-    <t>MP50-3723</t>
-  </si>
-  <si>
-    <t>675716847357</t>
-  </si>
-  <si>
-    <t>Pebble Beach THROW</t>
-  </si>
-  <si>
-    <t>JLHH10703</t>
-  </si>
-  <si>
-    <t>HH10-703</t>
-  </si>
-  <si>
-    <t>675716342449</t>
-  </si>
-  <si>
-    <t>Clamshell Comforter Set - King</t>
-  </si>
-  <si>
-    <t>JLID101122</t>
-  </si>
-  <si>
-    <t>ID10-1122</t>
-  </si>
-  <si>
-    <t>675716903879</t>
-  </si>
-  <si>
-    <t>Jungle Flower Comforter Set - Twin/Twin XL</t>
-  </si>
-  <si>
-    <t>JLMP10526</t>
-  </si>
-  <si>
-    <t>MP10526</t>
-  </si>
-  <si>
-    <t>675716479909</t>
-  </si>
-  <si>
-    <t>Turquoise River Bed Set - King</t>
-  </si>
-  <si>
-    <t>JLMZ200541</t>
-  </si>
-  <si>
-    <t>MZ20-0541</t>
-  </si>
-  <si>
-    <t>675716917227</t>
-  </si>
-  <si>
-    <t>Whale Love Sheet Set - Queen</t>
-  </si>
-  <si>
-    <t>JLFB10992</t>
-  </si>
-  <si>
-    <t>FB10-992</t>
-  </si>
-  <si>
-    <t>675716619947</t>
-  </si>
-  <si>
-    <t>Cypress Falls Bed Set - King</t>
-  </si>
-  <si>
-    <t>JLFPF180166</t>
-  </si>
-  <si>
-    <t>FPF18-0166</t>
-  </si>
-  <si>
-    <t>Gramercy Chair - Tribal</t>
-  </si>
-  <si>
-    <t>JLII1300182</t>
-  </si>
-  <si>
-    <t>II130-0182</t>
-  </si>
-  <si>
-    <t>675716977795</t>
-  </si>
-  <si>
-    <t>Woodworker Two Door Accent Chest</t>
-  </si>
-  <si>
-    <t>JLMZK13112</t>
-  </si>
-  <si>
-    <t>MZK13-112</t>
-  </si>
-  <si>
-    <t>675716904630</t>
-  </si>
-  <si>
-    <t>Ocean Friends Coverlet Set - Twin</t>
-  </si>
-  <si>
-    <t>JLWR142236</t>
-  </si>
-  <si>
-    <t>WR14-2236</t>
-  </si>
-  <si>
-    <t>86569938541</t>
-  </si>
-  <si>
-    <t>Sweetwater QUILT</t>
+    <t>Seashell Bay 6 Piece Quilted Coverlet Set - King/Cal King</t>
+  </si>
+  <si>
+    <t>JLHH10701</t>
+  </si>
+  <si>
+    <t>HH10-701</t>
+  </si>
+  <si>
+    <t>Newbury Comforter Set - Full</t>
   </si>
   <si>
     <t>JLMZ10517</t>
@@ -452,22 +461,13 @@
     <t>Ocean Friends Printed Shower Curtain</t>
   </si>
   <si>
-    <t>JLHH10701</t>
-  </si>
-  <si>
-    <t>HH10-701</t>
-  </si>
-  <si>
-    <t>Newbury Comforter Set - Full</t>
-  </si>
-  <si>
     <t>JLAH101614</t>
   </si>
   <si>
     <t>HH10-1614</t>
   </si>
   <si>
-    <t>Harbor House Bed Set - King</t>
+    <t>Tranquil Palms Bed Set - King</t>
   </si>
   <si>
     <t>JLMP95C0100</t>
@@ -491,7 +491,7 @@
     <t>86569963789</t>
   </si>
   <si>
-    <t>Saben COMFORTER (SET)</t>
+    <t>Azul Waves 9 Piece Bed Set - Cal King</t>
   </si>
   <si>
     <t>JLMP102704</t>
@@ -527,7 +527,7 @@
     <t>675716479695</t>
   </si>
   <si>
-    <t>Bayside COMFORTER (SET)</t>
+    <t>Blue Beach 7 Piece Comforter Set - King</t>
   </si>
   <si>
     <t>JLMP95C0108</t>
@@ -566,6 +566,63 @@
     <t>Whale Love Coverlet Set - Twin/Twin XL</t>
   </si>
   <si>
+    <t>JLHH30708A</t>
+  </si>
+  <si>
+    <t>HH30-708A</t>
+  </si>
+  <si>
+    <t>Newbury Fan Shell Pillow</t>
+  </si>
+  <si>
+    <t>JLII1340188</t>
+  </si>
+  <si>
+    <t>II134-0188</t>
+  </si>
+  <si>
+    <t>675716977870</t>
+  </si>
+  <si>
+    <t>Ozark Two Door Accent Cabinet</t>
+  </si>
+  <si>
+    <t>JLMP95C0121</t>
+  </si>
+  <si>
+    <t>MP95C-0121</t>
+  </si>
+  <si>
+    <t>086569905826</t>
+  </si>
+  <si>
+    <t>Sailing at Dusk Framed Canvas</t>
+  </si>
+  <si>
+    <t>JLMZ10512</t>
+  </si>
+  <si>
+    <t>MZ10-512</t>
+  </si>
+  <si>
+    <t>675716866273</t>
+  </si>
+  <si>
+    <t>Coastal Flowers Comforter Set - Twin/Twin XL</t>
+  </si>
+  <si>
+    <t>JLMZ80091</t>
+  </si>
+  <si>
+    <t>MZ80-091</t>
+  </si>
+  <si>
+    <t>675716439330</t>
+  </si>
+  <si>
+    <t>Coastal Flowers Coverlet Set - Full/Queen</t>
+  </si>
+  <si>
     <t>JLCHT015</t>
   </si>
   <si>
@@ -575,61 +632,16 @@
     <t>Seaside Three Drawer Chest</t>
   </si>
   <si>
-    <t>JLHH30708A</t>
-  </si>
-  <si>
-    <t>HH30-708A</t>
-  </si>
-  <si>
-    <t>Newbury Fan Shell Pillow</t>
-  </si>
-  <si>
-    <t>JLII1340188</t>
-  </si>
-  <si>
-    <t>II134-0188</t>
-  </si>
-  <si>
-    <t>675716977870</t>
-  </si>
-  <si>
-    <t>Ozark Two Door Accent Cabinet</t>
-  </si>
-  <si>
-    <t>JLMP95C0121</t>
-  </si>
-  <si>
-    <t>MP95C-0121</t>
-  </si>
-  <si>
-    <t>086569905826</t>
-  </si>
-  <si>
-    <t>Sailing at Dusk Framed Canvas</t>
-  </si>
-  <si>
-    <t>JLMZ10512</t>
-  </si>
-  <si>
-    <t>MZ10-512</t>
-  </si>
-  <si>
-    <t>675716866273</t>
-  </si>
-  <si>
-    <t>Coastal Flowers Comforter Set - Twin/Twin XL</t>
-  </si>
-  <si>
-    <t>JLMZ80091</t>
-  </si>
-  <si>
-    <t>MZ80-091</t>
-  </si>
-  <si>
-    <t>675716439330</t>
-  </si>
-  <si>
-    <t>Coastal Flowers Coverlet Set - Full/Queen</t>
+    <t>JLWR142233</t>
+  </si>
+  <si>
+    <t>WR14-2233</t>
+  </si>
+  <si>
+    <t>086569938510</t>
+  </si>
+  <si>
+    <t>Bear Stroll Oversized Quilt Set - Full/Queen</t>
   </si>
   <si>
     <t>JLMP10525</t>
@@ -644,16 +656,16 @@
     <t>Turquoise River Bed Set - Queen</t>
   </si>
   <si>
-    <t>JLWR142233</t>
-  </si>
-  <si>
-    <t>WR14-2233</t>
-  </si>
-  <si>
-    <t>086569938510</t>
-  </si>
-  <si>
-    <t>Twin Falls Oversize Quilt Bed Set - Full / Queen</t>
+    <t>JLWR101055</t>
+  </si>
+  <si>
+    <t>WR10-1055</t>
+  </si>
+  <si>
+    <t>675716482398</t>
+  </si>
+  <si>
+    <t>Quilted Plaid Comforter Set - Full/Queen</t>
   </si>
   <si>
     <t>JLMP303404</t>
@@ -665,7 +677,7 @@
     <t>675716822446</t>
   </si>
   <si>
-    <t>Pebble Beach NORMAL PILLOW - set of 2</t>
+    <t>Seashell Bay Pillows - Set of 2</t>
   </si>
   <si>
     <t>JLMP734967</t>
@@ -677,19 +689,7 @@
     <t>86569905468</t>
   </si>
   <si>
-    <t>Bayside BATH TOWEL</t>
-  </si>
-  <si>
-    <t>JLWR101055</t>
-  </si>
-  <si>
-    <t>WR10-1055</t>
-  </si>
-  <si>
-    <t>675716482398</t>
-  </si>
-  <si>
-    <t>Quilted Plaid Comforter Set - Full/Queen</t>
+    <t>Blue Beach Embroidered Cotton Jacquard 6 Piece Towel Set</t>
   </si>
   <si>
     <t>JLFB101147</t>
@@ -752,6 +752,30 @@
     <t>Muted Medallion 7 Piece Comforter Set - Full/Queen</t>
   </si>
   <si>
+    <t>JLMPE10695</t>
+  </si>
+  <si>
+    <t>MPE10-695</t>
+  </si>
+  <si>
+    <t>86569963765</t>
+  </si>
+  <si>
+    <t>Azul Waves 9 Piece Bed Set - Queen</t>
+  </si>
+  <si>
+    <t>JLWR142235</t>
+  </si>
+  <si>
+    <t>WR14-2235</t>
+  </si>
+  <si>
+    <t>86569938527</t>
+  </si>
+  <si>
+    <t>Moose Grid Oversized 4 Piece Quilt Set - Full/Queen</t>
+  </si>
+  <si>
     <t>JLHH10702</t>
   </si>
   <si>
@@ -764,31 +788,13 @@
     <t>Clamshell Comforter Set - Queen</t>
   </si>
   <si>
-    <t>JLMPE10695</t>
-  </si>
-  <si>
-    <t>MPE10-695</t>
-  </si>
-  <si>
-    <t>86569963765</t>
-  </si>
-  <si>
-    <t>JLWR142235</t>
-  </si>
-  <si>
-    <t>WR14-2235</t>
-  </si>
-  <si>
-    <t>86569938527</t>
-  </si>
-  <si>
     <t>JLAH101615</t>
   </si>
   <si>
     <t>HH10-1615</t>
   </si>
   <si>
-    <t>Harbor House Bed Set - Cal King</t>
+    <t>Tranquil Palms Bed Set - Cal King</t>
   </si>
   <si>
     <t>JLFPF180201</t>
@@ -821,7 +827,7 @@
     <t>675716799144</t>
   </si>
   <si>
-    <t>Taos Spice Comforter Set - Cal King</t>
+    <t>Sante Fe SpiceÃÂ Comforter Set - Cal King</t>
   </si>
   <si>
     <t>JLMZ200540</t>
@@ -836,6 +842,30 @@
     <t>Whale Love Sheet Set - Full</t>
   </si>
   <si>
+    <t>JLMP413764</t>
+  </si>
+  <si>
+    <t>MP41-3764</t>
+  </si>
+  <si>
+    <t>675716849894</t>
+  </si>
+  <si>
+    <t>Blue Beach Valance</t>
+  </si>
+  <si>
+    <t>JLMZK10111</t>
+  </si>
+  <si>
+    <t>MZK10-111</t>
+  </si>
+  <si>
+    <t>675716904548</t>
+  </si>
+  <si>
+    <t>Ocean Friends Complete Comforter Set - Full/Queen</t>
+  </si>
+  <si>
     <t>JLFPF180159</t>
   </si>
   <si>
@@ -845,30 +875,6 @@
     <t>Davenport Wing Chair - Fretwork</t>
   </si>
   <si>
-    <t>JLMP413764</t>
-  </si>
-  <si>
-    <t>MP41-3764</t>
-  </si>
-  <si>
-    <t>675716849894</t>
-  </si>
-  <si>
-    <t>Bayside VALANCE</t>
-  </si>
-  <si>
-    <t>JLMZK10111</t>
-  </si>
-  <si>
-    <t>MZK10-111</t>
-  </si>
-  <si>
-    <t>675716904548</t>
-  </si>
-  <si>
-    <t>Ocean Friends Complete Comforter Set - Full/Queen</t>
-  </si>
-  <si>
     <t>JLWR142234</t>
   </si>
   <si>
@@ -878,7 +884,7 @@
     <t>086569938558</t>
   </si>
   <si>
-    <t>Twin Falls Oversize Quilt Bed Set - King / Cal King</t>
+    <t>Bear Stroll Oversized Quilt Set - King/Cal King</t>
   </si>
   <si>
     <t>JLHH101224</t>
@@ -914,7 +920,19 @@
     <t>675716799120</t>
   </si>
   <si>
-    <t>Taos Spice Comforter Set - Queen</t>
+    <t>Sante Fe SpiceÃÂ Comforter Set -ÃÂ Queen</t>
+  </si>
+  <si>
+    <t>JLMZ10516</t>
+  </si>
+  <si>
+    <t>MZ10-516</t>
+  </si>
+  <si>
+    <t>675716875145</t>
+  </si>
+  <si>
+    <t>Tropical Flowers Comforter Set - Twin/Twin XL</t>
   </si>
   <si>
     <t>JLAH101612</t>
@@ -926,7 +944,7 @@
     <t>675716893804</t>
   </si>
   <si>
-    <t>Harbor House Bed Set - Full</t>
+    <t>Tranquil Palms Bed Set - Full</t>
   </si>
   <si>
     <t>JLFPF180147</t>
@@ -947,6 +965,9 @@
     <t>675716250294</t>
   </si>
   <si>
+    <t>Coastal Reef 3 Piece Bed Set - Twin</t>
+  </si>
+  <si>
     <t>JLHH30709A</t>
   </si>
   <si>
@@ -956,18 +977,6 @@
     <t>Newbury Neckroll Pillow</t>
   </si>
   <si>
-    <t>JLMZ10516</t>
-  </si>
-  <si>
-    <t>MZ10-516</t>
-  </si>
-  <si>
-    <t>675716875145</t>
-  </si>
-  <si>
-    <t>Tropical Flowers Comforter Set - Twin/Twin XL</t>
-  </si>
-  <si>
     <t>JLHH10500</t>
   </si>
   <si>
@@ -989,6 +998,9 @@
     <t>675716479701</t>
   </si>
   <si>
+    <t>Blue Beach 7 Piece Comforter Set - Cal King</t>
+  </si>
+  <si>
     <t>JLMP13374</t>
   </si>
   <si>
@@ -998,7 +1010,40 @@
     <t>675716438944</t>
   </si>
   <si>
-    <t>Bayside COVERLET&amp;BEDSPR</t>
+    <t>Blue Beach 6 Piece Coverlet Set - Queen</t>
+  </si>
+  <si>
+    <t>JLUHK100036</t>
+  </si>
+  <si>
+    <t>UHK10-0036</t>
+  </si>
+  <si>
+    <t>675716998325</t>
+  </si>
+  <si>
+    <t>Shark Swim 4 Piece Comforter Set - Twin/Twin XL</t>
+  </si>
+  <si>
+    <t>JLUHK120039</t>
+  </si>
+  <si>
+    <t>UHK12-0039</t>
+  </si>
+  <si>
+    <t>675716998417</t>
+  </si>
+  <si>
+    <t>Shark Swim 5 Piece Duvet Cover Set - Full/Queen</t>
+  </si>
+  <si>
+    <t>JLHH10704</t>
+  </si>
+  <si>
+    <t>HH10-704</t>
+  </si>
+  <si>
+    <t>Newbury Comforter Set - Cal King</t>
   </si>
   <si>
     <t>JLHH301230A</t>
@@ -1019,6 +1064,9 @@
     <t>675716479688</t>
   </si>
   <si>
+    <t>Blue Beach 7 Piece Comforter Set - Queen</t>
+  </si>
+  <si>
     <t>JLMP13375</t>
   </si>
   <si>
@@ -1028,34 +1076,7 @@
     <t>675716438951</t>
   </si>
   <si>
-    <t>JLUHK100036</t>
-  </si>
-  <si>
-    <t>UHK10-0036</t>
-  </si>
-  <si>
-    <t>675716998325</t>
-  </si>
-  <si>
-    <t>JLUHK120039</t>
-  </si>
-  <si>
-    <t>UHK12-0039</t>
-  </si>
-  <si>
-    <t>675716998417</t>
-  </si>
-  <si>
-    <t>Finn DUVET&amp;DUVET SET</t>
-  </si>
-  <si>
-    <t>JLHH10704</t>
-  </si>
-  <si>
-    <t>HH10-704</t>
-  </si>
-  <si>
-    <t>Newbury Comforter Set - Cal King</t>
+    <t>Blue Beach 6 Piece Coverlet Set - King</t>
   </si>
   <si>
     <t>JLHH10501</t>
@@ -1067,7 +1088,7 @@
     <t>675716251505</t>
   </si>
   <si>
-    <t>Abstract Leaf Comforter Set - King</t>
+    <t>Abstract Leaf Comforter Set - King - OVERSTOCK</t>
   </si>
   <si>
     <t>JLMP103068</t>
@@ -1082,6 +1103,18 @@
     <t>Logan Chocolate Faux Fur Comforter Set - Queen</t>
   </si>
   <si>
+    <t>JLMZK13113</t>
+  </si>
+  <si>
+    <t>MZK13-113</t>
+  </si>
+  <si>
+    <t>675716904654</t>
+  </si>
+  <si>
+    <t>Ocean Friends Coverlet Set - Full/Queen</t>
+  </si>
+  <si>
     <t>JLHH101546</t>
   </si>
   <si>
@@ -1112,16 +1145,7 @@
     <t>675716748029</t>
   </si>
   <si>
-    <t>JLMZK13113</t>
-  </si>
-  <si>
-    <t>MZK13-113</t>
-  </si>
-  <si>
-    <t>675716904654</t>
-  </si>
-  <si>
-    <t>Ocean Friends Coverlet Set - Full/Queen</t>
+    <t>Seashell Bay 6 Piece Duvet Cover Set - King/Cal King</t>
   </si>
   <si>
     <t>JLFB10991</t>
@@ -1184,7 +1208,7 @@
     <t>675716715809</t>
   </si>
   <si>
-    <t>Marina COVERLET&amp;BEDSPR</t>
+    <t>Catalina Shore 6 Piece Quilted Coverlet Set - King/Cal King</t>
   </si>
   <si>
     <t>JLHH10700</t>
@@ -1229,7 +1253,7 @@
     <t>675716366032</t>
   </si>
   <si>
-    <t>Brisbane NORMAL PILLOW</t>
+    <t>Abstract Leaf Pillow</t>
   </si>
   <si>
     <t>JLID101123</t>
@@ -1268,6 +1292,27 @@
     <t>Woodsman Comforter Set - King</t>
   </si>
   <si>
+    <t>JLMP13483</t>
+  </si>
+  <si>
+    <t>MP13-483</t>
+  </si>
+  <si>
+    <t>675716479473</t>
+  </si>
+  <si>
+    <t>Blue Beach 5 Piece Coverlet Set - Twin/Twin XL</t>
+  </si>
+  <si>
+    <t>JLMPS10115</t>
+  </si>
+  <si>
+    <t>MPS10115</t>
+  </si>
+  <si>
+    <t>Western Jewel Bed Set - Queen</t>
+  </si>
+  <si>
     <t>JLMPS95C0020</t>
   </si>
   <si>
@@ -1292,24 +1337,6 @@
     <t>Sunny Flowers Comforter Set - Twin/Twin XL</t>
   </si>
   <si>
-    <t>JLMP13483</t>
-  </si>
-  <si>
-    <t>MP13-483</t>
-  </si>
-  <si>
-    <t>675716479473</t>
-  </si>
-  <si>
-    <t>JLMPS10115</t>
-  </si>
-  <si>
-    <t>MPS10115</t>
-  </si>
-  <si>
-    <t>Western Jewel Bed Set - Queen</t>
-  </si>
-  <si>
     <t>JLMP1630267</t>
   </si>
   <si>
@@ -1319,7 +1346,7 @@
     <t>86569012326</t>
   </si>
   <si>
-    <t>Quaterfoil BOXES &amp; BASKETS</t>
+    <t>Forest Quatrefoil Wood Trays - Set of 2</t>
   </si>
   <si>
     <t>JLMZK10110</t>
@@ -1478,6 +1505,9 @@
     <t>675716998493</t>
   </si>
   <si>
+    <t>Shark Swim 4 Piece Duvet Cover Set - Twin/Twin XL</t>
+  </si>
+  <si>
     <t>JLWR101054</t>
   </si>
   <si>
@@ -1490,6 +1520,42 @@
     <t>Quilted Plaid Comforter Set - Twin</t>
   </si>
   <si>
+    <t>JLMP1670099</t>
+  </si>
+  <si>
+    <t>MP167-0099</t>
+  </si>
+  <si>
+    <t>675716940713</t>
+  </si>
+  <si>
+    <t>Iron Medallion Sculptures - Set of 2</t>
+  </si>
+  <si>
+    <t>JLMP95C0099</t>
+  </si>
+  <si>
+    <t>MP95C-0099</t>
+  </si>
+  <si>
+    <t>086569892935</t>
+  </si>
+  <si>
+    <t>Just Us Two Canvas</t>
+  </si>
+  <si>
+    <t>JLMPE10696</t>
+  </si>
+  <si>
+    <t>MPE10-696</t>
+  </si>
+  <si>
+    <t>86569963772</t>
+  </si>
+  <si>
+    <t>Azul Waves 9 Piece Bed Set - King</t>
+  </si>
+  <si>
     <t>JLUHK100025</t>
   </si>
   <si>
@@ -1502,39 +1568,6 @@
     <t>Whale Love Comforter Set - Twin/Twin XL</t>
   </si>
   <si>
-    <t>JLMP1670099</t>
-  </si>
-  <si>
-    <t>MP167-0099</t>
-  </si>
-  <si>
-    <t>675716940713</t>
-  </si>
-  <si>
-    <t>Iron Medallion Sculptures - Set of 2</t>
-  </si>
-  <si>
-    <t>JLMP95C0099</t>
-  </si>
-  <si>
-    <t>MP95C-0099</t>
-  </si>
-  <si>
-    <t>086569892935</t>
-  </si>
-  <si>
-    <t>Just Us Two Canvas</t>
-  </si>
-  <si>
-    <t>JLMPE10696</t>
-  </si>
-  <si>
-    <t>MPE10-696</t>
-  </si>
-  <si>
-    <t>86569963772</t>
-  </si>
-  <si>
     <t>JLMP70645</t>
   </si>
   <si>
@@ -1622,6 +1655,9 @@
     <t>86569963758</t>
   </si>
   <si>
+    <t>Azul Waves 9 Piece Bed Set - Full</t>
+  </si>
+  <si>
     <t>JLUHK130028</t>
   </si>
   <si>
@@ -1634,6 +1670,150 @@
     <t>Whale Love Coverlet Set - Full/Queen</t>
   </si>
   <si>
+    <t>JLHH101618</t>
+  </si>
+  <si>
+    <t>HH10-1618</t>
+  </si>
+  <si>
+    <t>675716893842</t>
+  </si>
+  <si>
+    <t>Paradise Lagoon 6 Piece Comforter Set - Full</t>
+  </si>
+  <si>
+    <t>JLMP103065</t>
+  </si>
+  <si>
+    <t>MP10-3065</t>
+  </si>
+  <si>
+    <t>675716783938</t>
+  </si>
+  <si>
+    <t>Logan Black Faux Fur Comforter Set - King</t>
+  </si>
+  <si>
+    <t>JLMP103077</t>
+  </si>
+  <si>
+    <t>MP10-3077</t>
+  </si>
+  <si>
+    <t>675716784232</t>
+  </si>
+  <si>
+    <t>Jackson Gray Faux Fur Bed Set - King</t>
+  </si>
+  <si>
+    <t>JLMP132425</t>
+  </si>
+  <si>
+    <t>MP13-2425</t>
+  </si>
+  <si>
+    <t>675716715779</t>
+  </si>
+  <si>
+    <t>Catalina Shore 6 Piece Quilted Coverlet Set - Full/Queen</t>
+  </si>
+  <si>
+    <t>JLMPE10693</t>
+  </si>
+  <si>
+    <t>MPE10-693</t>
+  </si>
+  <si>
+    <t>86569963741</t>
+  </si>
+  <si>
+    <t>Azul Waves 7 Piece Bed Set - Twin</t>
+  </si>
+  <si>
+    <t>JLMPS10116</t>
+  </si>
+  <si>
+    <t>MPS10116</t>
+  </si>
+  <si>
+    <t>Western Jewel Bed Set - King</t>
+  </si>
+  <si>
+    <t>JLMP132709</t>
+  </si>
+  <si>
+    <t>MP13-2709</t>
+  </si>
+  <si>
+    <t>675716748036</t>
+  </si>
+  <si>
+    <t>Seashell Bay 6 Piece Quilted Coverlet Set - Full/Queen</t>
+  </si>
+  <si>
+    <t>JL259280572</t>
+  </si>
+  <si>
+    <t>259280572</t>
+  </si>
+  <si>
+    <t>Jacqueline Ottoman with Pillows</t>
+  </si>
+  <si>
+    <t>JLFPF170129</t>
+  </si>
+  <si>
+    <t>FPF17-0129</t>
+  </si>
+  <si>
+    <t>Pampelonne Table - Gray</t>
+  </si>
+  <si>
+    <t>JLHH11705</t>
+  </si>
+  <si>
+    <t>HH11-705</t>
+  </si>
+  <si>
+    <t>Newbury Euro Sham</t>
+  </si>
+  <si>
+    <t>JLMP103072</t>
+  </si>
+  <si>
+    <t>MP10-3072</t>
+  </si>
+  <si>
+    <t>675716784140</t>
+  </si>
+  <si>
+    <t>Jackson Tan Faux Fur Bed Set - Queen</t>
+  </si>
+  <si>
+    <t>JLMP95G0114</t>
+  </si>
+  <si>
+    <t>MP95G-0114</t>
+  </si>
+  <si>
+    <t>086569895196</t>
+  </si>
+  <si>
+    <t>Countryside Coast Framed Prints - Set of 2</t>
+  </si>
+  <si>
+    <t>JLMP95C0146A</t>
+  </si>
+  <si>
+    <t>MP95C-0146A</t>
+  </si>
+  <si>
+    <t>86569995186</t>
+  </si>
+  <si>
+    <t>Bayside Icons Gel Coat Framed Canvas - Set of 4</t>
+  </si>
+  <si>
     <t>JLMP301926</t>
   </si>
   <si>
@@ -1643,7 +1823,7 @@
     <t>675716671198</t>
   </si>
   <si>
-    <t>Bayside NORMAL PILLOW</t>
+    <t>Blue Beach Pillows - Set of 2</t>
   </si>
   <si>
     <t>JLFHY015BWF</t>
@@ -1676,6 +1856,9 @@
     <t>675716998523</t>
   </si>
   <si>
+    <t>Shark Swim 5 Piece Coverlet Set - Full/Queen</t>
+  </si>
+  <si>
     <t>JLWR101057</t>
   </si>
   <si>
@@ -1718,7 +1901,7 @@
     <t>675716748005</t>
   </si>
   <si>
-    <t>Pebble Beach COMFORTER (SET)</t>
+    <t>Seashell Bay 7 Piece Comforter Set - Cal King</t>
   </si>
   <si>
     <t>JLMP12478</t>
@@ -1730,7 +1913,7 @@
     <t>675716479428</t>
   </si>
   <si>
-    <t>Bayside DUVET&amp;DUVET SET</t>
+    <t>Blue Beach 6 Piece Duvet Cover Set - Full/Queen</t>
   </si>
   <si>
     <t>JLMP103074</t>
@@ -1757,141 +1940,6 @@
     <t>Ocean Breeze Comforter Set - Queen</t>
   </si>
   <si>
-    <t>JLHH11705</t>
-  </si>
-  <si>
-    <t>HH11-705</t>
-  </si>
-  <si>
-    <t>Newbury Euro Sham</t>
-  </si>
-  <si>
-    <t>JLMP103072</t>
-  </si>
-  <si>
-    <t>MP10-3072</t>
-  </si>
-  <si>
-    <t>675716784140</t>
-  </si>
-  <si>
-    <t>Jackson Tan Faux Fur Bed Set - Queen</t>
-  </si>
-  <si>
-    <t>JLMP95G0114</t>
-  </si>
-  <si>
-    <t>MP95G-0114</t>
-  </si>
-  <si>
-    <t>086569895196</t>
-  </si>
-  <si>
-    <t>Countryside Coast Framed Prints - Set of 2</t>
-  </si>
-  <si>
-    <t>JL259280572</t>
-  </si>
-  <si>
-    <t>259280572</t>
-  </si>
-  <si>
-    <t>Jacqueline Ottoman with Pillows</t>
-  </si>
-  <si>
-    <t>JLFPF170129</t>
-  </si>
-  <si>
-    <t>FPF17-0129</t>
-  </si>
-  <si>
-    <t>Pampelonne Table - Gray</t>
-  </si>
-  <si>
-    <t>JLMP132709</t>
-  </si>
-  <si>
-    <t>MP13-2709</t>
-  </si>
-  <si>
-    <t>675716748036</t>
-  </si>
-  <si>
-    <t>JLHH101618</t>
-  </si>
-  <si>
-    <t>HH10-1618</t>
-  </si>
-  <si>
-    <t>675716893842</t>
-  </si>
-  <si>
-    <t>Paradise Lagoon 6 Piece Comforter Set - Full</t>
-  </si>
-  <si>
-    <t>JLMP103065</t>
-  </si>
-  <si>
-    <t>MP10-3065</t>
-  </si>
-  <si>
-    <t>675716783938</t>
-  </si>
-  <si>
-    <t>Logan Black Faux Fur Comforter Set - King</t>
-  </si>
-  <si>
-    <t>JLMP103077</t>
-  </si>
-  <si>
-    <t>MP10-3077</t>
-  </si>
-  <si>
-    <t>675716784232</t>
-  </si>
-  <si>
-    <t>Jackson Gray Faux Fur Bed Set - King</t>
-  </si>
-  <si>
-    <t>JLMP132425</t>
-  </si>
-  <si>
-    <t>MP13-2425</t>
-  </si>
-  <si>
-    <t>675716715779</t>
-  </si>
-  <si>
-    <t>JLMPE10693</t>
-  </si>
-  <si>
-    <t>MPE10-693</t>
-  </si>
-  <si>
-    <t>86569963741</t>
-  </si>
-  <si>
-    <t>JLMPS10116</t>
-  </si>
-  <si>
-    <t>MPS10116</t>
-  </si>
-  <si>
-    <t>Western Jewel Bed Set - King</t>
-  </si>
-  <si>
-    <t>JLMP95C0146A</t>
-  </si>
-  <si>
-    <t>MP95C-0146A</t>
-  </si>
-  <si>
-    <t>86569995186</t>
-  </si>
-  <si>
-    <t>Seascape Canvas</t>
-  </si>
-  <si>
     <t>JLAH101613</t>
   </si>
   <si>
@@ -1901,7 +1949,7 @@
     <t>675716893811</t>
   </si>
   <si>
-    <t>Harbor House Bed Set - Queen</t>
+    <t>Tranquil Palms Bed Set - Queen</t>
   </si>
   <si>
     <t>JLFMY007BLK</t>
@@ -1964,7 +2012,7 @@
     <t>675716799137</t>
   </si>
   <si>
-    <t>Taos Spice Comforter Set - King</t>
+    <t>Sante Fe SpiceÃÂ Comforter Set -ÃÂ King</t>
   </si>
   <si>
     <t>JLMP12479</t>
@@ -1976,6 +2024,9 @@
     <t>675716479435</t>
   </si>
   <si>
+    <t>Blue Beach 6 Piece Duvet Cover Set - King</t>
+  </si>
+  <si>
     <t>JLMP95C0120</t>
   </si>
   <si>
@@ -2039,7 +2090,7 @@
     <t>675716748050</t>
   </si>
   <si>
-    <t>Pebble Beach SHOWER CURTAIN</t>
+    <t>Seashell Bay Shower Curtain</t>
   </si>
   <si>
     <t>JLMZ200539</t>
@@ -3273,32 +3324,32 @@
       <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" t="n">
-        <v>30.24</v>
+        <v>17</v>
       </c>
       <c r="F14" s="6" t="n">
         <v/>
       </c>
       <c r="G14" t="n">
-        <v>40.32</v>
+        <v>22.67</v>
       </c>
       <c r="H14" s="6" t="n">
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>30.24</v>
+        <v>17</v>
       </c>
       <c r="J14" s="6" t="n">
         <v/>
       </c>
       <c r="K14" t="n">
-        <v>40.32</v>
+        <v>22.67</v>
       </c>
       <c r="L14" s="6" t="n">
         <v/>
@@ -3333,37 +3384,37 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="E15" t="n">
-        <v>104.99</v>
+        <v>18.38</v>
       </c>
       <c r="F15" s="6" t="n">
         <v/>
       </c>
       <c r="G15" t="n">
-        <v>139.99</v>
+        <v>24.51</v>
       </c>
       <c r="H15" s="6" t="n">
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>104.99</v>
+        <v>19.85</v>
       </c>
       <c r="J15" s="6" t="n">
         <v/>
       </c>
       <c r="K15" t="n">
-        <v>139.99</v>
+        <v>26.47</v>
       </c>
       <c r="L15" s="6" t="n">
         <v/>
@@ -3398,37 +3449,37 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
         <v>72</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="E16" t="n">
-        <v>28.35</v>
+        <v>33.07</v>
       </c>
       <c r="F16" s="6" t="n">
         <v/>
       </c>
       <c r="G16" t="n">
-        <v>37.8</v>
+        <v>44.09</v>
       </c>
       <c r="H16" s="6" t="n">
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>30.62</v>
+        <v>33.07</v>
       </c>
       <c r="J16" s="6" t="n">
         <v/>
       </c>
       <c r="K16" t="n">
-        <v>40.82</v>
+        <v>44.09</v>
       </c>
       <c r="L16" s="6" t="n">
         <v/>
@@ -3463,37 +3514,37 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="E17" t="n">
-        <v>35.28</v>
+        <v>119</v>
       </c>
       <c r="F17" s="6" t="n">
         <v/>
       </c>
       <c r="G17" t="n">
-        <v>47.04</v>
+        <v>158.67</v>
       </c>
       <c r="H17" s="6" t="n">
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>38.1</v>
+        <v>119</v>
       </c>
       <c r="J17" s="6" t="n">
         <v/>
       </c>
       <c r="K17" t="n">
-        <v>50.8</v>
+        <v>158.67</v>
       </c>
       <c r="L17" s="6" t="n">
         <v/>
@@ -3528,37 +3579,37 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
         <v>80</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>81</v>
-      </c>
-      <c r="C18" t="n">
-        <v/>
       </c>
       <c r="D18" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E18" t="n">
-        <v>150</v>
+        <v>30.24</v>
       </c>
       <c r="F18" s="6" t="n">
         <v/>
       </c>
       <c r="G18" t="n">
-        <v>200</v>
+        <v>40.32</v>
       </c>
       <c r="H18" s="6" t="n">
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>150</v>
+        <v>30.24</v>
       </c>
       <c r="J18" s="6" t="n">
         <v/>
       </c>
       <c r="K18" t="n">
-        <v>200</v>
+        <v>40.32</v>
       </c>
       <c r="L18" s="6" t="n">
         <v/>
@@ -3605,25 +3656,25 @@
         <v>86</v>
       </c>
       <c r="E19" t="n">
-        <v>104</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="F19" s="6" t="n">
         <v/>
       </c>
       <c r="G19" t="n">
-        <v>138.67</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="H19" s="6" t="n">
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>112.32</v>
+        <v>79.37</v>
       </c>
       <c r="J19" s="6" t="n">
         <v/>
       </c>
       <c r="K19" t="n">
-        <v>149.76</v>
+        <v>105.83</v>
       </c>
       <c r="L19" s="6" t="n">
         <v/>
@@ -3670,25 +3721,25 @@
         <v>90</v>
       </c>
       <c r="E20" t="n">
-        <v>65.52</v>
+        <v>15.12</v>
       </c>
       <c r="F20" s="6" t="n">
         <v/>
       </c>
       <c r="G20" t="n">
-        <v>87.36</v>
+        <v>20.16</v>
       </c>
       <c r="H20" s="6" t="n">
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>70.76000000000001</v>
+        <v>15.12</v>
       </c>
       <c r="J20" s="6" t="n">
         <v/>
       </c>
       <c r="K20" t="n">
-        <v>94.34999999999999</v>
+        <v>20.16</v>
       </c>
       <c r="L20" s="6" t="n">
         <v/>
@@ -3728,32 +3779,32 @@
       <c r="B21" t="s">
         <v>92</v>
       </c>
-      <c r="C21" t="n">
-        <v/>
+      <c r="C21" t="s">
+        <v>93</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>227.5</v>
       </c>
       <c r="F21" s="6" t="n">
         <v/>
       </c>
       <c r="G21" t="n">
-        <v>22.67</v>
+        <v>303.33</v>
       </c>
       <c r="H21" s="6" t="n">
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>227.5</v>
       </c>
       <c r="J21" s="6" t="n">
         <v/>
       </c>
       <c r="K21" t="n">
-        <v>22.67</v>
+        <v>303.33</v>
       </c>
       <c r="L21" s="6" t="n">
         <v/>
@@ -3788,37 +3839,37 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
         <v>96</v>
+      </c>
+      <c r="C22" t="n">
+        <v/>
       </c>
       <c r="D22" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E22" t="n">
-        <v>33.07</v>
+        <v>125</v>
       </c>
       <c r="F22" s="6" t="n">
         <v/>
       </c>
       <c r="G22" t="n">
-        <v>44.09</v>
+        <v>166.67</v>
       </c>
       <c r="H22" s="6" t="n">
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>33.07</v>
+        <v>125</v>
       </c>
       <c r="J22" s="6" t="n">
         <v/>
       </c>
       <c r="K22" t="n">
-        <v>44.09</v>
+        <v>166.67</v>
       </c>
       <c r="L22" s="6" t="n">
         <v/>
@@ -3865,25 +3916,25 @@
         <v>101</v>
       </c>
       <c r="E23" t="n">
-        <v>18.38</v>
+        <v>225</v>
       </c>
       <c r="F23" s="6" t="n">
         <v/>
       </c>
       <c r="G23" t="n">
-        <v>24.51</v>
+        <v>300</v>
       </c>
       <c r="H23" s="6" t="n">
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>19.85</v>
+        <v>225</v>
       </c>
       <c r="J23" s="6" t="n">
         <v/>
       </c>
       <c r="K23" t="n">
-        <v>26.47</v>
+        <v>300</v>
       </c>
       <c r="L23" s="6" t="n">
         <v/>
@@ -3930,25 +3981,25 @@
         <v>105</v>
       </c>
       <c r="E24" t="n">
-        <v>119</v>
+        <v>35.18</v>
       </c>
       <c r="F24" s="6" t="n">
         <v/>
       </c>
       <c r="G24" t="n">
-        <v>158.67</v>
+        <v>46.91</v>
       </c>
       <c r="H24" s="6" t="n">
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>119</v>
+        <v>35.18</v>
       </c>
       <c r="J24" s="6" t="n">
         <v/>
       </c>
       <c r="K24" t="n">
-        <v>158.67</v>
+        <v>46.91</v>
       </c>
       <c r="L24" s="6" t="n">
         <v/>
@@ -3995,25 +4046,25 @@
         <v>109</v>
       </c>
       <c r="E25" t="n">
-        <v>30.24</v>
+        <v>50.4</v>
       </c>
       <c r="F25" s="6" t="n">
         <v/>
       </c>
       <c r="G25" t="n">
-        <v>40.32</v>
+        <v>67.2</v>
       </c>
       <c r="H25" s="6" t="n">
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>30.24</v>
+        <v>54.43</v>
       </c>
       <c r="J25" s="6" t="n">
         <v/>
       </c>
       <c r="K25" t="n">
-        <v>40.32</v>
+        <v>72.58</v>
       </c>
       <c r="L25" s="6" t="n">
         <v/>
@@ -4060,25 +4111,25 @@
         <v>113</v>
       </c>
       <c r="E26" t="n">
-        <v>73.48999999999999</v>
+        <v>104.99</v>
       </c>
       <c r="F26" s="6" t="n">
         <v/>
       </c>
       <c r="G26" t="n">
-        <v>97.98999999999999</v>
+        <v>139.99</v>
       </c>
       <c r="H26" s="6" t="n">
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>79.37</v>
+        <v>104.99</v>
       </c>
       <c r="J26" s="6" t="n">
         <v/>
       </c>
       <c r="K26" t="n">
-        <v>105.83</v>
+        <v>139.99</v>
       </c>
       <c r="L26" s="6" t="n">
         <v/>
@@ -4125,25 +4176,25 @@
         <v>117</v>
       </c>
       <c r="E27" t="n">
-        <v>15.12</v>
+        <v>30.24</v>
       </c>
       <c r="F27" s="6" t="n">
         <v/>
       </c>
       <c r="G27" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="H27" s="6" t="n">
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>15.12</v>
+        <v>30.24</v>
       </c>
       <c r="J27" s="6" t="n">
         <v/>
       </c>
       <c r="K27" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="L27" s="6" t="n">
         <v/>
@@ -4190,25 +4241,25 @@
         <v>121</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5</v>
+        <v>28.35</v>
       </c>
       <c r="F28" s="6" t="n">
         <v/>
       </c>
       <c r="G28" t="n">
-        <v>303.33</v>
+        <v>37.8</v>
       </c>
       <c r="H28" s="6" t="n">
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>227.5</v>
+        <v>30.62</v>
       </c>
       <c r="J28" s="6" t="n">
         <v/>
       </c>
       <c r="K28" t="n">
-        <v>303.33</v>
+        <v>40.82</v>
       </c>
       <c r="L28" s="6" t="n">
         <v/>
@@ -4248,32 +4299,32 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="n">
-        <v/>
+      <c r="C29" t="s">
+        <v>124</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" t="n">
-        <v>125</v>
+        <v>35.28</v>
       </c>
       <c r="F29" s="6" t="n">
         <v/>
       </c>
       <c r="G29" t="n">
-        <v>166.67</v>
+        <v>47.04</v>
       </c>
       <c r="H29" s="6" t="n">
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>125</v>
+        <v>38.1</v>
       </c>
       <c r="J29" s="6" t="n">
         <v/>
       </c>
       <c r="K29" t="n">
-        <v>166.67</v>
+        <v>50.8</v>
       </c>
       <c r="L29" s="6" t="n">
         <v/>
@@ -4308,37 +4359,37 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" t="s">
         <v>127</v>
+      </c>
+      <c r="C30" t="n">
+        <v/>
       </c>
       <c r="D30" s="6" t="s">
         <v>128</v>
       </c>
       <c r="E30" t="n">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="F30" s="6" t="n">
         <v/>
       </c>
       <c r="G30" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H30" s="6" t="n">
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="J30" s="6" t="n">
         <v/>
       </c>
       <c r="K30" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L30" s="6" t="n">
         <v/>
@@ -4385,25 +4436,25 @@
         <v>132</v>
       </c>
       <c r="E31" t="n">
-        <v>35.18</v>
+        <v>104</v>
       </c>
       <c r="F31" s="6" t="n">
         <v/>
       </c>
       <c r="G31" t="n">
-        <v>46.91</v>
+        <v>138.67</v>
       </c>
       <c r="H31" s="6" t="n">
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>35.18</v>
+        <v>112.32</v>
       </c>
       <c r="J31" s="6" t="n">
         <v/>
       </c>
       <c r="K31" t="n">
-        <v>46.91</v>
+        <v>149.76</v>
       </c>
       <c r="L31" s="6" t="n">
         <v/>
@@ -4450,25 +4501,25 @@
         <v>136</v>
       </c>
       <c r="E32" t="n">
-        <v>50.4</v>
+        <v>65.52</v>
       </c>
       <c r="F32" s="6" t="n">
         <v/>
       </c>
       <c r="G32" t="n">
-        <v>67.2</v>
+        <v>87.36</v>
       </c>
       <c r="H32" s="6" t="n">
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>54.43</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="J32" s="6" t="n">
         <v/>
       </c>
       <c r="K32" t="n">
-        <v>72.58</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="L32" s="6" t="n">
         <v/>
@@ -4508,32 +4559,32 @@
       <c r="B33" t="s">
         <v>138</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="n">
+        <v/>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="E33" t="n">
-        <v>30.24</v>
+        <v>94</v>
       </c>
       <c r="F33" s="6" t="n">
         <v/>
       </c>
       <c r="G33" t="n">
-        <v>40.32</v>
+        <v>125.33</v>
       </c>
       <c r="H33" s="6" t="n">
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>30.24</v>
+        <v>94</v>
       </c>
       <c r="J33" s="6" t="n">
         <v/>
       </c>
       <c r="K33" t="n">
-        <v>40.32</v>
+        <v>125.33</v>
       </c>
       <c r="L33" s="6" t="n">
         <v/>
@@ -4568,37 +4619,37 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" t="s">
         <v>141</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>142</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="E34" t="n">
-        <v>12.08</v>
+        <v>30.24</v>
       </c>
       <c r="F34" s="6" t="n">
         <v/>
       </c>
       <c r="G34" t="n">
-        <v>16.11</v>
+        <v>40.32</v>
       </c>
       <c r="H34" s="6" t="n">
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>12.08</v>
+        <v>30.24</v>
       </c>
       <c r="J34" s="6" t="n">
         <v/>
       </c>
       <c r="K34" t="n">
-        <v>16.11</v>
+        <v>40.32</v>
       </c>
       <c r="L34" s="6" t="n">
         <v/>
@@ -4633,37 +4684,37 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
         <v>145</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>146</v>
-      </c>
-      <c r="C35" t="n">
-        <v/>
       </c>
       <c r="D35" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E35" t="n">
-        <v>94</v>
+        <v>12.08</v>
       </c>
       <c r="F35" s="6" t="n">
         <v/>
       </c>
       <c r="G35" t="n">
-        <v>125.33</v>
+        <v>16.11</v>
       </c>
       <c r="H35" s="6" t="n">
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>94</v>
+        <v>12.08</v>
       </c>
       <c r="J35" s="6" t="n">
         <v/>
       </c>
       <c r="K35" t="n">
-        <v>125.33</v>
+        <v>16.11</v>
       </c>
       <c r="L35" s="6" t="n">
         <v/>
@@ -5295,25 +5346,25 @@
         <v>185</v>
       </c>
       <c r="E45" t="n">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="F45" s="6" t="n">
         <v/>
       </c>
       <c r="G45" t="n">
-        <v>260</v>
+        <v>29.33</v>
       </c>
       <c r="H45" s="6" t="n">
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="J45" s="6" t="n">
         <v/>
       </c>
       <c r="K45" t="n">
-        <v>260</v>
+        <v>29.33</v>
       </c>
       <c r="L45" s="6" t="n">
         <v/>
@@ -5353,32 +5404,32 @@
       <c r="B46" t="s">
         <v>187</v>
       </c>
-      <c r="C46" t="n">
-        <v/>
+      <c r="C46" t="s">
+        <v>188</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="F46" s="6" t="n">
         <v/>
       </c>
       <c r="G46" t="n">
-        <v>29.33</v>
+        <v>300</v>
       </c>
       <c r="H46" s="6" t="n">
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="J46" s="6" t="n">
         <v/>
       </c>
       <c r="K46" t="n">
-        <v>29.33</v>
+        <v>300</v>
       </c>
       <c r="L46" s="6" t="n">
         <v/>
@@ -5413,37 +5464,37 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E47" t="n">
-        <v>225</v>
+        <v>35.28</v>
       </c>
       <c r="F47" s="6" t="n">
         <v/>
       </c>
       <c r="G47" t="n">
-        <v>300</v>
+        <v>47.04</v>
       </c>
       <c r="H47" s="6" t="n">
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>225</v>
+        <v>35.28</v>
       </c>
       <c r="J47" s="6" t="n">
         <v/>
       </c>
       <c r="K47" t="n">
-        <v>300</v>
+        <v>47.04</v>
       </c>
       <c r="L47" s="6" t="n">
         <v/>
@@ -5478,37 +5529,37 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E48" t="n">
-        <v>35.28</v>
+        <v>25.2</v>
       </c>
       <c r="F48" s="6" t="n">
         <v/>
       </c>
       <c r="G48" t="n">
-        <v>47.04</v>
+        <v>33.6</v>
       </c>
       <c r="H48" s="6" t="n">
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>35.28</v>
+        <v>25.2</v>
       </c>
       <c r="J48" s="6" t="n">
         <v/>
       </c>
       <c r="K48" t="n">
-        <v>47.04</v>
+        <v>33.6</v>
       </c>
       <c r="L48" s="6" t="n">
         <v/>
@@ -5543,37 +5594,37 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E49" t="n">
-        <v>25.2</v>
+        <v>36.74</v>
       </c>
       <c r="F49" s="6" t="n">
         <v/>
       </c>
       <c r="G49" t="n">
-        <v>33.6</v>
+        <v>48.99</v>
       </c>
       <c r="H49" s="6" t="n">
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>25.2</v>
+        <v>36.74</v>
       </c>
       <c r="J49" s="6" t="n">
         <v/>
       </c>
       <c r="K49" t="n">
-        <v>33.6</v>
+        <v>48.99</v>
       </c>
       <c r="L49" s="6" t="n">
         <v/>
@@ -5608,37 +5659,37 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
-      </c>
-      <c r="C50" t="s">
         <v>203</v>
+      </c>
+      <c r="C50" t="n">
+        <v/>
       </c>
       <c r="D50" s="6" t="s">
         <v>204</v>
       </c>
       <c r="E50" t="n">
-        <v>36.74</v>
+        <v>195</v>
       </c>
       <c r="F50" s="6" t="n">
         <v/>
       </c>
       <c r="G50" t="n">
-        <v>48.99</v>
+        <v>260</v>
       </c>
       <c r="H50" s="6" t="n">
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>36.74</v>
+        <v>195</v>
       </c>
       <c r="J50" s="6" t="n">
         <v/>
       </c>
       <c r="K50" t="n">
-        <v>48.99</v>
+        <v>260</v>
       </c>
       <c r="L50" s="6" t="n">
         <v/>
@@ -5685,25 +5736,25 @@
         <v>208</v>
       </c>
       <c r="E51" t="n">
-        <v>62.99</v>
+        <v>45.36</v>
       </c>
       <c r="F51" s="6" t="n">
         <v/>
       </c>
       <c r="G51" t="n">
-        <v>83.98999999999999</v>
+        <v>60.48</v>
       </c>
       <c r="H51" s="6" t="n">
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>68.03</v>
+        <v>48.99</v>
       </c>
       <c r="J51" s="6" t="n">
         <v/>
       </c>
       <c r="K51" t="n">
-        <v>90.70999999999999</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="L51" s="6" t="n">
         <v/>
@@ -5750,25 +5801,25 @@
         <v>212</v>
       </c>
       <c r="E52" t="n">
-        <v>45.36</v>
+        <v>62.99</v>
       </c>
       <c r="F52" s="6" t="n">
         <v/>
       </c>
       <c r="G52" t="n">
-        <v>60.48</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="H52" s="6" t="n">
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>48.99</v>
+        <v>68.03</v>
       </c>
       <c r="J52" s="6" t="n">
         <v/>
       </c>
       <c r="K52" t="n">
-        <v>65.31999999999999</v>
+        <v>90.70999999999999</v>
       </c>
       <c r="L52" s="6" t="n">
         <v/>
@@ -5815,25 +5866,25 @@
         <v>216</v>
       </c>
       <c r="E53" t="n">
-        <v>21.6</v>
+        <v>33.07</v>
       </c>
       <c r="F53" s="6" t="n">
         <v/>
       </c>
       <c r="G53" t="n">
-        <v>28.8</v>
+        <v>44.09</v>
       </c>
       <c r="H53" s="6" t="n">
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>23.33</v>
+        <v>33.07</v>
       </c>
       <c r="J53" s="6" t="n">
         <v/>
       </c>
       <c r="K53" t="n">
-        <v>31.1</v>
+        <v>44.09</v>
       </c>
       <c r="L53" s="6" t="n">
         <v/>
@@ -5880,25 +5931,25 @@
         <v>220</v>
       </c>
       <c r="E54" t="n">
-        <v>31.5</v>
+        <v>21.6</v>
       </c>
       <c r="F54" s="6" t="n">
         <v/>
       </c>
       <c r="G54" t="n">
-        <v>42</v>
+        <v>28.8</v>
       </c>
       <c r="H54" s="6" t="n">
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>34.02</v>
+        <v>23.33</v>
       </c>
       <c r="J54" s="6" t="n">
         <v/>
       </c>
       <c r="K54" t="n">
-        <v>45.36</v>
+        <v>31.1</v>
       </c>
       <c r="L54" s="6" t="n">
         <v/>
@@ -5945,25 +5996,25 @@
         <v>224</v>
       </c>
       <c r="E55" t="n">
-        <v>33.07</v>
+        <v>31.5</v>
       </c>
       <c r="F55" s="6" t="n">
         <v/>
       </c>
       <c r="G55" t="n">
-        <v>44.09</v>
+        <v>42</v>
       </c>
       <c r="H55" s="6" t="n">
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>33.07</v>
+        <v>34.02</v>
       </c>
       <c r="J55" s="6" t="n">
         <v/>
       </c>
       <c r="K55" t="n">
-        <v>44.09</v>
+        <v>45.36</v>
       </c>
       <c r="L55" s="6" t="n">
         <v/>
@@ -6335,25 +6386,25 @@
         <v>248</v>
       </c>
       <c r="E61" t="n">
-        <v>104</v>
+        <v>57.17</v>
       </c>
       <c r="F61" s="6" t="n">
         <v/>
       </c>
       <c r="G61" t="n">
-        <v>138.67</v>
+        <v>76.23</v>
       </c>
       <c r="H61" s="6" t="n">
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>104</v>
+        <v>61.75</v>
       </c>
       <c r="J61" s="6" t="n">
         <v/>
       </c>
       <c r="K61" t="n">
-        <v>138.67</v>
+        <v>82.33</v>
       </c>
       <c r="L61" s="6" t="n">
         <v/>
@@ -6397,28 +6448,28 @@
         <v>251</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="E62" t="n">
-        <v>57.17</v>
+        <v>45.36</v>
       </c>
       <c r="F62" s="6" t="n">
         <v/>
       </c>
       <c r="G62" t="n">
-        <v>76.23</v>
+        <v>60.48</v>
       </c>
       <c r="H62" s="6" t="n">
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>61.75</v>
+        <v>48.99</v>
       </c>
       <c r="J62" s="6" t="n">
         <v/>
       </c>
       <c r="K62" t="n">
-        <v>82.33</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="L62" s="6" t="n">
         <v/>
@@ -6453,37 +6504,37 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="E63" t="n">
-        <v>45.36</v>
+        <v>104</v>
       </c>
       <c r="F63" s="6" t="n">
         <v/>
       </c>
       <c r="G63" t="n">
-        <v>60.48</v>
+        <v>138.67</v>
       </c>
       <c r="H63" s="6" t="n">
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>48.99</v>
+        <v>104</v>
       </c>
       <c r="J63" s="6" t="n">
         <v/>
       </c>
       <c r="K63" t="n">
-        <v>65.31999999999999</v>
+        <v>138.67</v>
       </c>
       <c r="L63" s="6" t="n">
         <v/>
@@ -6518,16 +6569,16 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C64" t="n">
         <v/>
       </c>
       <c r="D64" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E64" t="n">
         <v>100.8</v>
@@ -6583,16 +6634,16 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C65" t="n">
         <v/>
       </c>
       <c r="D65" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E65" t="n">
         <v>125</v>
@@ -6648,16 +6699,16 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E66" t="n">
         <v>183.95</v>
@@ -6713,16 +6764,16 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E67" t="n">
         <v>73.5</v>
@@ -6778,16 +6829,16 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E68" t="n">
         <v>14.11</v>
@@ -6843,37 +6894,37 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
-      </c>
-      <c r="C69" t="n">
-        <v/>
+        <v>276</v>
+      </c>
+      <c r="C69" t="s">
+        <v>277</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E69" t="n">
-        <v>165</v>
+        <v>8.82</v>
       </c>
       <c r="F69" s="6" t="n">
         <v/>
       </c>
       <c r="G69" t="n">
-        <v>220</v>
+        <v>11.76</v>
       </c>
       <c r="H69" s="6" t="n">
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>165</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="J69" s="6" t="n">
         <v/>
       </c>
       <c r="K69" t="n">
-        <v>220</v>
+        <v>12.7</v>
       </c>
       <c r="L69" s="6" t="n">
         <v/>
@@ -6908,37 +6959,37 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B70" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C70" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E70" t="n">
-        <v>8.82</v>
+        <v>40.43</v>
       </c>
       <c r="F70" s="6" t="n">
         <v/>
       </c>
       <c r="G70" t="n">
-        <v>11.76</v>
+        <v>53.91</v>
       </c>
       <c r="H70" s="6" t="n">
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>9.529999999999999</v>
+        <v>40.43</v>
       </c>
       <c r="J70" s="6" t="n">
         <v/>
       </c>
       <c r="K70" t="n">
-        <v>12.7</v>
+        <v>53.91</v>
       </c>
       <c r="L70" s="6" t="n">
         <v/>
@@ -6973,37 +7024,37 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B71" t="s">
-        <v>281</v>
-      </c>
-      <c r="C71" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="C71" t="n">
+        <v/>
       </c>
       <c r="D71" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E71" t="n">
-        <v>40.43</v>
+        <v>165</v>
       </c>
       <c r="F71" s="6" t="n">
         <v/>
       </c>
       <c r="G71" t="n">
-        <v>53.91</v>
+        <v>220</v>
       </c>
       <c r="H71" s="6" t="n">
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>40.43</v>
+        <v>165</v>
       </c>
       <c r="J71" s="6" t="n">
         <v/>
       </c>
       <c r="K71" t="n">
-        <v>53.91</v>
+        <v>220</v>
       </c>
       <c r="L71" s="6" t="n">
         <v/>
@@ -7038,16 +7089,16 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E72" t="n">
         <v>50.4</v>
@@ -7103,16 +7154,16 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E73" t="n">
         <v>132.5</v>
@@ -7168,16 +7219,16 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E74" t="n">
         <v>100.8</v>
@@ -7233,16 +7284,16 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C75" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E75" t="n">
         <v>63</v>
@@ -7298,37 +7349,37 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C76" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E76" t="n">
-        <v>80.64</v>
+        <v>25.2</v>
       </c>
       <c r="F76" s="6" t="n">
         <v/>
       </c>
       <c r="G76" t="n">
-        <v>107.52</v>
+        <v>33.6</v>
       </c>
       <c r="H76" s="6" t="n">
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>80.64</v>
+        <v>25.2</v>
       </c>
       <c r="J76" s="6" t="n">
         <v/>
       </c>
       <c r="K76" t="n">
-        <v>116.12</v>
+        <v>33.6</v>
       </c>
       <c r="L76" s="6" t="n">
         <v/>
@@ -7363,37 +7414,37 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B77" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77" t="n">
-        <v/>
+        <v>307</v>
+      </c>
+      <c r="C77" t="s">
+        <v>308</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E77" t="n">
-        <v>150</v>
+        <v>80.64</v>
       </c>
       <c r="F77" s="6" t="n">
         <v/>
       </c>
       <c r="G77" t="n">
-        <v>200</v>
+        <v>107.52</v>
       </c>
       <c r="H77" s="6" t="n">
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>150</v>
+        <v>80.64</v>
       </c>
       <c r="J77" s="6" t="n">
         <v/>
       </c>
       <c r="K77" t="n">
-        <v>200</v>
+        <v>116.12</v>
       </c>
       <c r="L77" s="6" t="n">
         <v/>
@@ -7428,37 +7479,37 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B78" t="s">
-        <v>308</v>
-      </c>
-      <c r="C78" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="C78" t="n">
+        <v/>
       </c>
       <c r="D78" s="6" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="E78" t="n">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="F78" s="6" t="n">
         <v/>
       </c>
       <c r="G78" t="n">
-        <v>105.33</v>
+        <v>200</v>
       </c>
       <c r="H78" s="6" t="n">
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>85.31999999999999</v>
+        <v>150</v>
       </c>
       <c r="J78" s="6" t="n">
         <v/>
       </c>
       <c r="K78" t="n">
-        <v>113.76</v>
+        <v>200</v>
       </c>
       <c r="L78" s="6" t="n">
         <v/>
@@ -7493,37 +7544,37 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>311</v>
-      </c>
-      <c r="C79" t="n">
-        <v/>
+        <v>314</v>
+      </c>
+      <c r="C79" t="s">
+        <v>315</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E79" t="n">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F79" s="6" t="n">
         <v/>
       </c>
       <c r="G79" t="n">
-        <v>29.33</v>
+        <v>105.33</v>
       </c>
       <c r="H79" s="6" t="n">
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>22</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="J79" s="6" t="n">
         <v/>
       </c>
       <c r="K79" t="n">
-        <v>29.33</v>
+        <v>113.76</v>
       </c>
       <c r="L79" s="6" t="n">
         <v/>
@@ -7558,37 +7609,37 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B80" t="s">
-        <v>314</v>
-      </c>
-      <c r="C80" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+      <c r="C80" t="n">
+        <v/>
       </c>
       <c r="D80" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E80" t="n">
-        <v>25.2</v>
+        <v>22</v>
       </c>
       <c r="F80" s="6" t="n">
         <v/>
       </c>
       <c r="G80" t="n">
-        <v>33.6</v>
+        <v>29.33</v>
       </c>
       <c r="H80" s="6" t="n">
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>25.2</v>
+        <v>22</v>
       </c>
       <c r="J80" s="6" t="n">
         <v/>
       </c>
       <c r="K80" t="n">
-        <v>33.6</v>
+        <v>29.33</v>
       </c>
       <c r="L80" s="6" t="n">
         <v/>
@@ -7623,16 +7674,16 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E81" t="n">
         <v>104</v>
@@ -7688,16 +7739,16 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B82" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>170</v>
+        <v>327</v>
       </c>
       <c r="E82" t="n">
         <v>78.73999999999999</v>
@@ -7753,16 +7804,16 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E83" t="n">
         <v>52.49</v>
@@ -7818,37 +7869,37 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
-      </c>
-      <c r="C84" t="n">
-        <v/>
+        <v>333</v>
+      </c>
+      <c r="C84" t="s">
+        <v>334</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E84" t="n">
-        <v>10.6</v>
+        <v>35.28</v>
       </c>
       <c r="F84" s="6" t="n">
         <v/>
       </c>
       <c r="G84" t="n">
-        <v>10.6</v>
+        <v>47.04</v>
       </c>
       <c r="H84" s="6" t="n">
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>8.59</v>
+        <v>38.1</v>
       </c>
       <c r="J84" s="6" t="n">
         <v/>
       </c>
       <c r="K84" t="n">
-        <v>11.45</v>
+        <v>50.8</v>
       </c>
       <c r="L84" s="6" t="n">
         <v/>
@@ -7883,37 +7934,37 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B85" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C85" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="E85" t="n">
-        <v>68.23999999999999</v>
+        <v>40.32</v>
       </c>
       <c r="F85" s="6" t="n">
         <v/>
       </c>
       <c r="G85" t="n">
-        <v>90.98999999999999</v>
+        <v>53.76</v>
       </c>
       <c r="H85" s="6" t="n">
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>73.7</v>
+        <v>43.55</v>
       </c>
       <c r="J85" s="6" t="n">
         <v/>
       </c>
       <c r="K85" t="n">
-        <v>98.27</v>
+        <v>58.06</v>
       </c>
       <c r="L85" s="6" t="n">
         <v/>
@@ -7948,37 +7999,37 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B86" t="s">
-        <v>335</v>
-      </c>
-      <c r="C86" t="s">
-        <v>336</v>
+        <v>341</v>
+      </c>
+      <c r="C86" t="n">
+        <v/>
       </c>
       <c r="D86" s="6" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="E86" t="n">
-        <v>57.74</v>
+        <v>119</v>
       </c>
       <c r="F86" s="6" t="n">
         <v/>
       </c>
       <c r="G86" t="n">
-        <v>76.98999999999999</v>
+        <v>158.67</v>
       </c>
       <c r="H86" s="6" t="n">
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>62.36</v>
+        <v>119</v>
       </c>
       <c r="J86" s="6" t="n">
         <v/>
       </c>
       <c r="K86" t="n">
-        <v>83.15000000000001</v>
+        <v>158.67</v>
       </c>
       <c r="L86" s="6" t="n">
         <v/>
@@ -8013,37 +8064,37 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B87" t="s">
-        <v>338</v>
-      </c>
-      <c r="C87" t="s">
-        <v>339</v>
+        <v>344</v>
+      </c>
+      <c r="C87" t="n">
+        <v/>
       </c>
       <c r="D87" s="6" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="E87" t="n">
-        <v>35.28</v>
+        <v>10.6</v>
       </c>
       <c r="F87" s="6" t="n">
         <v/>
       </c>
       <c r="G87" t="n">
-        <v>47.04</v>
+        <v>10.6</v>
       </c>
       <c r="H87" s="6" t="n">
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>38.1</v>
+        <v>8.59</v>
       </c>
       <c r="J87" s="6" t="n">
         <v/>
       </c>
       <c r="K87" t="n">
-        <v>50.8</v>
+        <v>11.45</v>
       </c>
       <c r="L87" s="6" t="n">
         <v/>
@@ -8078,37 +8129,37 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C88" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E88" t="n">
-        <v>40.32</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="F88" s="6" t="n">
         <v/>
       </c>
       <c r="G88" t="n">
-        <v>53.76</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="H88" s="6" t="n">
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>43.55</v>
+        <v>73.7</v>
       </c>
       <c r="J88" s="6" t="n">
         <v/>
       </c>
       <c r="K88" t="n">
-        <v>58.06</v>
+        <v>98.27</v>
       </c>
       <c r="L88" s="6" t="n">
         <v/>
@@ -8143,37 +8194,37 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B89" t="s">
-        <v>345</v>
-      </c>
-      <c r="C89" t="n">
-        <v/>
+        <v>351</v>
+      </c>
+      <c r="C89" t="s">
+        <v>352</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E89" t="n">
-        <v>119</v>
+        <v>57.74</v>
       </c>
       <c r="F89" s="6" t="n">
         <v/>
       </c>
       <c r="G89" t="n">
-        <v>158.67</v>
+        <v>76.98999999999999</v>
       </c>
       <c r="H89" s="6" t="n">
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>119</v>
+        <v>62.36</v>
       </c>
       <c r="J89" s="6" t="n">
         <v/>
       </c>
       <c r="K89" t="n">
-        <v>158.67</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="L89" s="6" t="n">
         <v/>
@@ -8208,16 +8259,16 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B90" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C90" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E90" t="n">
         <v>119</v>
@@ -8273,16 +8324,16 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C91" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E91" t="n">
         <v>36.75</v>
@@ -8338,37 +8389,37 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B92" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E92" t="n">
-        <v>120.74</v>
+        <v>45.48</v>
       </c>
       <c r="F92" s="6" t="n">
         <v/>
       </c>
       <c r="G92" t="n">
-        <v>160.99</v>
+        <v>60.64</v>
       </c>
       <c r="H92" s="6" t="n">
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>120.74</v>
+        <v>45.48</v>
       </c>
       <c r="J92" s="6" t="n">
         <v/>
       </c>
       <c r="K92" t="n">
-        <v>160.99</v>
+        <v>60.64</v>
       </c>
       <c r="L92" s="6" t="n">
         <v/>
@@ -8403,37 +8454,37 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B93" t="s">
-        <v>360</v>
-      </c>
-      <c r="C93" t="n">
-        <v/>
+        <v>367</v>
+      </c>
+      <c r="C93" t="s">
+        <v>368</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E93" t="n">
-        <v>10.6</v>
+        <v>120.74</v>
       </c>
       <c r="F93" s="6" t="n">
         <v/>
       </c>
       <c r="G93" t="n">
-        <v>14.14</v>
+        <v>160.99</v>
       </c>
       <c r="H93" s="6" t="n">
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>11.45</v>
+        <v>120.74</v>
       </c>
       <c r="J93" s="6" t="n">
         <v/>
       </c>
       <c r="K93" t="n">
-        <v>15.27</v>
+        <v>160.99</v>
       </c>
       <c r="L93" s="6" t="n">
         <v/>
@@ -8468,37 +8519,37 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B94" t="s">
-        <v>363</v>
-      </c>
-      <c r="C94" t="s">
-        <v>364</v>
+        <v>371</v>
+      </c>
+      <c r="C94" t="n">
+        <v/>
       </c>
       <c r="D94" s="6" t="s">
-        <v>37</v>
+        <v>372</v>
       </c>
       <c r="E94" t="n">
-        <v>60.48</v>
+        <v>10.6</v>
       </c>
       <c r="F94" s="6" t="n">
         <v/>
       </c>
       <c r="G94" t="n">
-        <v>80.64</v>
+        <v>14.14</v>
       </c>
       <c r="H94" s="6" t="n">
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>65.31999999999999</v>
+        <v>11.45</v>
       </c>
       <c r="J94" s="6" t="n">
         <v/>
       </c>
       <c r="K94" t="n">
-        <v>87.09</v>
+        <v>15.27</v>
       </c>
       <c r="L94" s="6" t="n">
         <v/>
@@ -8533,37 +8584,37 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B95" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C95" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E95" t="n">
-        <v>45.48</v>
+        <v>60.48</v>
       </c>
       <c r="F95" s="6" t="n">
         <v/>
       </c>
       <c r="G95" t="n">
-        <v>60.64</v>
+        <v>80.64</v>
       </c>
       <c r="H95" s="6" t="n">
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>45.48</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="J95" s="6" t="n">
         <v/>
       </c>
       <c r="K95" t="n">
-        <v>60.64</v>
+        <v>87.09</v>
       </c>
       <c r="L95" s="6" t="n">
         <v/>
@@ -8598,16 +8649,16 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B96" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C96" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E96" t="n">
         <v>195</v>
@@ -8663,16 +8714,16 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B97" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C97" t="n">
         <v/>
       </c>
       <c r="D97" s="6" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E97" t="n">
         <v>150</v>
@@ -8728,16 +8779,16 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B98" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C98" t="n">
         <v/>
       </c>
       <c r="D98" s="6" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E98" t="n">
         <v>173.55</v>
@@ -8793,16 +8844,16 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B99" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C99" t="n">
         <v/>
       </c>
       <c r="D99" s="6" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E99" t="n">
         <v>195</v>
@@ -8858,16 +8909,16 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B100" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C100" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E100" t="n">
         <v>49.88</v>
@@ -8923,16 +8974,16 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B101" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C101" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E101" t="n">
         <v>60.48</v>
@@ -8988,16 +9039,16 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B102" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C102" t="n">
         <v/>
       </c>
       <c r="D102" s="6" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E102" t="n">
         <v>84</v>
@@ -9053,16 +9104,16 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B103" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C103" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E103" t="n">
         <v>35.28</v>
@@ -9118,16 +9169,16 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B104" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C104" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E104" t="n">
         <v>37.8</v>
@@ -9183,16 +9234,16 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B105" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C105" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E105" t="n">
         <v>18</v>
@@ -9248,16 +9299,16 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B106" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C106" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E106" t="n">
         <v>35.28</v>
@@ -9313,16 +9364,16 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B107" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C107" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E107" t="n">
         <v>80.64</v>
@@ -9378,16 +9429,16 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B108" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C108" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E108" t="n">
         <v>37.8</v>
@@ -9443,37 +9494,37 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B109" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C109" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E109" t="n">
-        <v>35.28</v>
+        <v>47.24</v>
       </c>
       <c r="F109" s="6" t="n">
         <v/>
       </c>
       <c r="G109" t="n">
-        <v>47.04</v>
+        <v>62.99</v>
       </c>
       <c r="H109" s="6" t="n">
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>35.28</v>
+        <v>51.02</v>
       </c>
       <c r="J109" s="6" t="n">
         <v/>
       </c>
       <c r="K109" t="n">
-        <v>47.04</v>
+        <v>68.03</v>
       </c>
       <c r="L109" s="6" t="n">
         <v/>
@@ -9508,37 +9559,37 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B110" t="s">
-        <v>422</v>
-      </c>
-      <c r="C110" t="s">
-        <v>423</v>
+        <v>430</v>
+      </c>
+      <c r="C110" t="n">
+        <v/>
       </c>
       <c r="D110" s="6" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E110" t="n">
-        <v>26.24</v>
+        <v>136.5</v>
       </c>
       <c r="F110" s="6" t="n">
         <v/>
       </c>
       <c r="G110" t="n">
-        <v>34.99</v>
+        <v>182</v>
       </c>
       <c r="H110" s="6" t="n">
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>26.24</v>
+        <v>136.5</v>
       </c>
       <c r="J110" s="6" t="n">
         <v/>
       </c>
       <c r="K110" t="n">
-        <v>34.99</v>
+        <v>182</v>
       </c>
       <c r="L110" s="6" t="n">
         <v/>
@@ -9573,37 +9624,37 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B111" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C111" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="E111" t="n">
-        <v>47.24</v>
+        <v>35.28</v>
       </c>
       <c r="F111" s="6" t="n">
         <v/>
       </c>
       <c r="G111" t="n">
-        <v>62.99</v>
+        <v>47.04</v>
       </c>
       <c r="H111" s="6" t="n">
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>51.02</v>
+        <v>35.28</v>
       </c>
       <c r="J111" s="6" t="n">
         <v/>
       </c>
       <c r="K111" t="n">
-        <v>68.03</v>
+        <v>47.04</v>
       </c>
       <c r="L111" s="6" t="n">
         <v/>
@@ -9638,37 +9689,37 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B112" t="s">
-        <v>429</v>
-      </c>
-      <c r="C112" t="n">
-        <v/>
+        <v>437</v>
+      </c>
+      <c r="C112" t="s">
+        <v>438</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="E112" t="n">
-        <v>136.5</v>
+        <v>26.24</v>
       </c>
       <c r="F112" s="6" t="n">
         <v/>
       </c>
       <c r="G112" t="n">
-        <v>182</v>
+        <v>34.99</v>
       </c>
       <c r="H112" s="6" t="n">
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>136.5</v>
+        <v>26.24</v>
       </c>
       <c r="J112" s="6" t="n">
         <v/>
       </c>
       <c r="K112" t="n">
-        <v>182</v>
+        <v>34.99</v>
       </c>
       <c r="L112" s="6" t="n">
         <v/>
@@ -9703,16 +9754,16 @@
     </row>
     <row r="113" spans="1:21">
       <c r="A113" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B113" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C113" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="E113" t="n">
         <v>35.44</v>
@@ -9768,16 +9819,16 @@
     </row>
     <row r="114" spans="1:21">
       <c r="A114" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B114" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C114" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="E114" t="n">
         <v>35.18</v>
@@ -9833,16 +9884,16 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B115" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="C115" t="n">
         <v/>
       </c>
       <c r="D115" s="6" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E115" t="n">
         <v>59</v>
@@ -9898,16 +9949,16 @@
     </row>
     <row r="116" spans="1:21">
       <c r="A116" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B116" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C116" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E116" t="n">
         <v>63</v>
@@ -9963,16 +10014,16 @@
     </row>
     <row r="117" spans="1:21">
       <c r="A117" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B117" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C117" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E117" t="n">
         <v>40.32</v>
@@ -10028,16 +10079,16 @@
     </row>
     <row r="118" spans="1:21">
       <c r="A118" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B118" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C118" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E118" t="n">
         <v>157.3</v>
@@ -10093,16 +10144,16 @@
     </row>
     <row r="119" spans="1:21">
       <c r="A119" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B119" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C119" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E119" t="n">
         <v>195</v>
@@ -10158,16 +10209,16 @@
     </row>
     <row r="120" spans="1:21">
       <c r="A120" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B120" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C120" t="n">
         <v/>
       </c>
       <c r="D120" s="6" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="E120" t="n">
         <v>132.5</v>
@@ -10223,16 +10274,16 @@
     </row>
     <row r="121" spans="1:21">
       <c r="A121" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B121" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="C121" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="E121" t="n">
         <v>100.8</v>
@@ -10288,16 +10339,16 @@
     </row>
     <row r="122" spans="1:21">
       <c r="A122" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B122" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C122" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="E122" t="n">
         <v>31.49</v>
@@ -10353,16 +10404,16 @@
     </row>
     <row r="123" spans="1:21">
       <c r="A123" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B123" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C123" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E123" t="n">
         <v>36.75</v>
@@ -10418,16 +10469,16 @@
     </row>
     <row r="124" spans="1:21">
       <c r="A124" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B124" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C124" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E124" t="n">
         <v>179</v>
@@ -10483,16 +10534,16 @@
     </row>
     <row r="125" spans="1:21">
       <c r="A125" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B125" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C125" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="E125" t="n">
         <v>35.28</v>
@@ -10548,16 +10599,16 @@
     </row>
     <row r="126" spans="1:21">
       <c r="A126" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B126" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C126" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E126" t="n">
         <v>45.36</v>
@@ -10613,16 +10664,16 @@
     </row>
     <row r="127" spans="1:21">
       <c r="A127" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B127" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="C127" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>343</v>
+        <v>496</v>
       </c>
       <c r="E127" t="n">
         <v>30.24</v>
@@ -10678,16 +10729,16 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B128" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C128" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E128" t="n">
         <v>23.62</v>
@@ -10743,37 +10794,37 @@
     </row>
     <row r="129" spans="1:21">
       <c r="A129" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B129" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C129" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E129" t="n">
-        <v>35.28</v>
+        <v>25.2</v>
       </c>
       <c r="F129" s="6" t="n">
         <v/>
       </c>
       <c r="G129" t="n">
-        <v>47.04</v>
+        <v>33.6</v>
       </c>
       <c r="H129" s="6" t="n">
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>35.28</v>
+        <v>25.2</v>
       </c>
       <c r="J129" s="6" t="n">
         <v/>
       </c>
       <c r="K129" t="n">
-        <v>47.04</v>
+        <v>33.6</v>
       </c>
       <c r="L129" s="6" t="n">
         <v/>
@@ -10808,37 +10859,37 @@
     </row>
     <row r="130" spans="1:21">
       <c r="A130" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B130" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C130" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="E130" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F130" s="6" t="n">
+        <v/>
+      </c>
+      <c r="G130" t="n">
         <v>25.2</v>
       </c>
-      <c r="F130" s="6" t="n">
-        <v/>
-      </c>
-      <c r="G130" t="n">
-        <v>33.6</v>
-      </c>
       <c r="H130" s="6" t="n">
         <v/>
       </c>
       <c r="I130" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J130" s="6" t="n">
+        <v/>
+      </c>
+      <c r="K130" t="n">
         <v>25.2</v>
-      </c>
-      <c r="J130" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K130" t="n">
-        <v>33.6</v>
       </c>
       <c r="L130" s="6" t="n">
         <v/>
@@ -10873,37 +10924,37 @@
     </row>
     <row r="131" spans="1:21">
       <c r="A131" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B131" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C131" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E131" t="n">
-        <v>18.9</v>
+        <v>62.95</v>
       </c>
       <c r="F131" s="6" t="n">
         <v/>
       </c>
       <c r="G131" t="n">
-        <v>25.2</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="H131" s="6" t="n">
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>18.9</v>
+        <v>67.98</v>
       </c>
       <c r="J131" s="6" t="n">
         <v/>
       </c>
       <c r="K131" t="n">
-        <v>25.2</v>
+        <v>90.64</v>
       </c>
       <c r="L131" s="6" t="n">
         <v/>
@@ -10938,37 +10989,37 @@
     </row>
     <row r="132" spans="1:21">
       <c r="A132" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B132" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C132" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>158</v>
+        <v>516</v>
       </c>
       <c r="E132" t="n">
-        <v>62.95</v>
+        <v>35.28</v>
       </c>
       <c r="F132" s="6" t="n">
         <v/>
       </c>
       <c r="G132" t="n">
-        <v>83.93000000000001</v>
+        <v>47.04</v>
       </c>
       <c r="H132" s="6" t="n">
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>67.98</v>
+        <v>35.28</v>
       </c>
       <c r="J132" s="6" t="n">
         <v/>
       </c>
       <c r="K132" t="n">
-        <v>90.64</v>
+        <v>47.04</v>
       </c>
       <c r="L132" s="6" t="n">
         <v/>
@@ -11003,16 +11054,16 @@
     </row>
     <row r="133" spans="1:21">
       <c r="A133" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="B133" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C133" t="n">
         <v/>
       </c>
       <c r="D133" s="6" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E133" t="n">
         <v>17.33</v>
@@ -11068,16 +11119,16 @@
     </row>
     <row r="134" spans="1:21">
       <c r="A134" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B134" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C134" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="E134" t="n">
         <v>73.48999999999999</v>
@@ -11133,16 +11184,16 @@
     </row>
     <row r="135" spans="1:21">
       <c r="A135" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="B135" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="C135" t="n">
         <v/>
       </c>
       <c r="D135" s="6" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="E135" t="n">
         <v>13.13</v>
@@ -11198,16 +11249,16 @@
     </row>
     <row r="136" spans="1:21">
       <c r="A136" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="B136" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C136" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="E136" t="n">
         <v>157.3</v>
@@ -11263,16 +11314,16 @@
     </row>
     <row r="137" spans="1:21">
       <c r="A137" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="B137" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="C137" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E137" t="n">
         <v>30.24</v>
@@ -11328,16 +11379,16 @@
     </row>
     <row r="138" spans="1:21">
       <c r="A138" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B138" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C138" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="E138" t="n">
         <v>44.42</v>
@@ -11393,16 +11444,16 @@
     </row>
     <row r="139" spans="1:21">
       <c r="A139" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B139" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C139" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="E139" t="n">
         <v>62.99</v>
@@ -11458,16 +11509,16 @@
     </row>
     <row r="140" spans="1:21">
       <c r="A140" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="B140" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C140" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>158</v>
+        <v>546</v>
       </c>
       <c r="E140" t="n">
         <v>51.4</v>
@@ -11523,16 +11574,16 @@
     </row>
     <row r="141" spans="1:21">
       <c r="A141" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B141" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C141" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="E141" t="n">
         <v>45.36</v>
@@ -11588,37 +11639,37 @@
     </row>
     <row r="142" spans="1:21">
       <c r="A142" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B142" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C142" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="E142" t="n">
-        <v>21.6</v>
+        <v>80.64</v>
       </c>
       <c r="F142" s="6" t="n">
         <v/>
       </c>
       <c r="G142" t="n">
-        <v>28.8</v>
+        <v>107.52</v>
       </c>
       <c r="H142" s="6" t="n">
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>23.33</v>
+        <v>80.64</v>
       </c>
       <c r="J142" s="6" t="n">
         <v/>
       </c>
       <c r="K142" t="n">
-        <v>31.1</v>
+        <v>107.52</v>
       </c>
       <c r="L142" s="6" t="n">
         <v/>
@@ -11653,37 +11704,37 @@
     </row>
     <row r="143" spans="1:21">
       <c r="A143" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B143" t="s">
-        <v>544</v>
-      </c>
-      <c r="C143" t="n">
-        <v/>
+        <v>556</v>
+      </c>
+      <c r="C143" t="s">
+        <v>557</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="E143" t="n">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="F143" s="6" t="n">
         <v/>
       </c>
       <c r="G143" t="n">
-        <v>218.67</v>
+        <v>56</v>
       </c>
       <c r="H143" s="6" t="n">
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="J143" s="6" t="n">
         <v/>
       </c>
       <c r="K143" t="n">
-        <v>218.67</v>
+        <v>56</v>
       </c>
       <c r="L143" s="6" t="n">
         <v/>
@@ -11718,37 +11769,37 @@
     </row>
     <row r="144" spans="1:21">
       <c r="A144" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="B144" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C144" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="E144" t="n">
-        <v>31.49</v>
+        <v>49.88</v>
       </c>
       <c r="F144" s="6" t="n">
         <v/>
       </c>
       <c r="G144" t="n">
-        <v>41.99</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="H144" s="6" t="n">
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>31.49</v>
+        <v>49.88</v>
       </c>
       <c r="J144" s="6" t="n">
         <v/>
       </c>
       <c r="K144" t="n">
-        <v>41.99</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="L144" s="6" t="n">
         <v/>
@@ -11783,37 +11834,37 @@
     </row>
     <row r="145" spans="1:21">
       <c r="A145" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="B145" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="C145" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="E145" t="n">
-        <v>45.36</v>
+        <v>55.44</v>
       </c>
       <c r="F145" s="6" t="n">
         <v/>
       </c>
       <c r="G145" t="n">
-        <v>60.48</v>
+        <v>73.92</v>
       </c>
       <c r="H145" s="6" t="n">
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>48.99</v>
+        <v>59.88</v>
       </c>
       <c r="J145" s="6" t="n">
         <v/>
       </c>
       <c r="K145" t="n">
-        <v>65.31999999999999</v>
+        <v>79.83</v>
       </c>
       <c r="L145" s="6" t="n">
         <v/>
@@ -11848,37 +11899,37 @@
     </row>
     <row r="146" spans="1:21">
       <c r="A146" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="B146" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="C146" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="E146" t="n">
-        <v>23.62</v>
+        <v>45.62</v>
       </c>
       <c r="F146" s="6" t="n">
         <v/>
       </c>
       <c r="G146" t="n">
-        <v>31.49</v>
+        <v>60.83</v>
       </c>
       <c r="H146" s="6" t="n">
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>23.62</v>
+        <v>49.27</v>
       </c>
       <c r="J146" s="6" t="n">
         <v/>
       </c>
       <c r="K146" t="n">
-        <v>31.49</v>
+        <v>65.7</v>
       </c>
       <c r="L146" s="6" t="n">
         <v/>
@@ -11913,37 +11964,37 @@
     </row>
     <row r="147" spans="1:21">
       <c r="A147" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="B147" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="C147" t="n">
         <v/>
       </c>
       <c r="D147" s="6" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="E147" t="n">
-        <v>139</v>
+        <v>159.25</v>
       </c>
       <c r="F147" s="6" t="n">
         <v/>
       </c>
       <c r="G147" t="n">
-        <v>185.33</v>
+        <v>212.33</v>
       </c>
       <c r="H147" s="6" t="n">
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>139</v>
+        <v>159.25</v>
       </c>
       <c r="J147" s="6" t="n">
         <v/>
       </c>
       <c r="K147" t="n">
-        <v>185.33</v>
+        <v>212.33</v>
       </c>
       <c r="L147" s="6" t="n">
         <v/>
@@ -11978,37 +12029,37 @@
     </row>
     <row r="148" spans="1:21">
       <c r="A148" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="B148" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="C148" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="E148" t="n">
-        <v>131.3</v>
+        <v>60.48</v>
       </c>
       <c r="F148" s="6" t="n">
         <v/>
       </c>
       <c r="G148" t="n">
-        <v>175.07</v>
+        <v>80.64</v>
       </c>
       <c r="H148" s="6" t="n">
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>131.3</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="J148" s="6" t="n">
         <v/>
       </c>
       <c r="K148" t="n">
-        <v>175.07</v>
+        <v>87.09</v>
       </c>
       <c r="L148" s="6" t="n">
         <v/>
@@ -12043,37 +12094,37 @@
     </row>
     <row r="149" spans="1:21">
       <c r="A149" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="B149" t="s">
-        <v>565</v>
-      </c>
-      <c r="C149" t="s">
-        <v>566</v>
+        <v>579</v>
+      </c>
+      <c r="C149" t="n">
+        <v/>
       </c>
       <c r="D149" s="6" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="E149" t="n">
-        <v>80.64</v>
+        <v>59</v>
       </c>
       <c r="F149" s="6" t="n">
         <v/>
       </c>
       <c r="G149" t="n">
-        <v>107.52</v>
+        <v>78.67</v>
       </c>
       <c r="H149" s="6" t="n">
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>87.09</v>
+        <v>59</v>
       </c>
       <c r="J149" s="6" t="n">
         <v/>
       </c>
       <c r="K149" t="n">
-        <v>116.12</v>
+        <v>78.67</v>
       </c>
       <c r="L149" s="6" t="n">
         <v/>
@@ -12108,37 +12159,37 @@
     </row>
     <row r="150" spans="1:21">
       <c r="A150" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="B150" t="s">
-        <v>569</v>
-      </c>
-      <c r="C150" t="s">
-        <v>570</v>
+        <v>582</v>
+      </c>
+      <c r="C150" t="n">
+        <v/>
       </c>
       <c r="D150" s="6" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E150" t="n">
-        <v>55.13</v>
+        <v>65</v>
       </c>
       <c r="F150" s="6" t="n">
         <v/>
       </c>
       <c r="G150" t="n">
-        <v>73.51000000000001</v>
+        <v>86.67</v>
       </c>
       <c r="H150" s="6" t="n">
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>59.54</v>
+        <v>65</v>
       </c>
       <c r="J150" s="6" t="n">
         <v/>
       </c>
       <c r="K150" t="n">
-        <v>79.39</v>
+        <v>86.67</v>
       </c>
       <c r="L150" s="6" t="n">
         <v/>
@@ -12173,37 +12224,37 @@
     </row>
     <row r="151" spans="1:21">
       <c r="A151" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B151" t="s">
-        <v>573</v>
-      </c>
-      <c r="C151" t="s">
-        <v>574</v>
+        <v>585</v>
+      </c>
+      <c r="C151" t="n">
+        <v/>
       </c>
       <c r="D151" s="6" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="E151" t="n">
-        <v>44.42</v>
+        <v>22</v>
       </c>
       <c r="F151" s="6" t="n">
         <v/>
       </c>
       <c r="G151" t="n">
-        <v>59.23</v>
+        <v>29.33</v>
       </c>
       <c r="H151" s="6" t="n">
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>44.42</v>
+        <v>22</v>
       </c>
       <c r="J151" s="6" t="n">
         <v/>
       </c>
       <c r="K151" t="n">
-        <v>59.23</v>
+        <v>29.33</v>
       </c>
       <c r="L151" s="6" t="n">
         <v/>
@@ -12238,37 +12289,37 @@
     </row>
     <row r="152" spans="1:21">
       <c r="A152" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="B152" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C152" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="E152" t="n">
-        <v>121.9</v>
+        <v>44.42</v>
       </c>
       <c r="F152" s="6" t="n">
         <v/>
       </c>
       <c r="G152" t="n">
-        <v>162.53</v>
+        <v>59.23</v>
       </c>
       <c r="H152" s="6" t="n">
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>131.65</v>
+        <v>44.42</v>
       </c>
       <c r="J152" s="6" t="n">
         <v/>
       </c>
       <c r="K152" t="n">
-        <v>175.53</v>
+        <v>59.23</v>
       </c>
       <c r="L152" s="6" t="n">
         <v/>
@@ -12303,37 +12354,37 @@
     </row>
     <row r="153" spans="1:21">
       <c r="A153" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="B153" t="s">
-        <v>581</v>
-      </c>
-      <c r="C153" t="n">
-        <v/>
+        <v>592</v>
+      </c>
+      <c r="C153" t="s">
+        <v>593</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="E153" t="n">
-        <v>22</v>
+        <v>45.36</v>
       </c>
       <c r="F153" s="6" t="n">
         <v/>
       </c>
       <c r="G153" t="n">
-        <v>29.33</v>
+        <v>60.48</v>
       </c>
       <c r="H153" s="6" t="n">
         <v/>
       </c>
       <c r="I153" t="n">
-        <v>22</v>
+        <v>45.36</v>
       </c>
       <c r="J153" s="6" t="n">
         <v/>
       </c>
       <c r="K153" t="n">
-        <v>29.33</v>
+        <v>60.48</v>
       </c>
       <c r="L153" s="6" t="n">
         <v/>
@@ -12368,37 +12419,37 @@
     </row>
     <row r="154" spans="1:21">
       <c r="A154" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B154" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C154" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E154" t="n">
-        <v>44.42</v>
+        <v>60.48</v>
       </c>
       <c r="F154" s="6" t="n">
         <v/>
       </c>
       <c r="G154" t="n">
-        <v>59.23</v>
+        <v>80.64</v>
       </c>
       <c r="H154" s="6" t="n">
         <v/>
       </c>
       <c r="I154" t="n">
-        <v>44.42</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="J154" s="6" t="n">
         <v/>
       </c>
       <c r="K154" t="n">
-        <v>59.23</v>
+        <v>87.09</v>
       </c>
       <c r="L154" s="6" t="n">
         <v/>
@@ -12433,37 +12484,37 @@
     </row>
     <row r="155" spans="1:21">
       <c r="A155" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B155" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="C155" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="E155" t="n">
-        <v>45.36</v>
+        <v>21.6</v>
       </c>
       <c r="F155" s="6" t="n">
         <v/>
       </c>
       <c r="G155" t="n">
-        <v>60.48</v>
+        <v>28.8</v>
       </c>
       <c r="H155" s="6" t="n">
         <v/>
       </c>
       <c r="I155" t="n">
-        <v>45.36</v>
+        <v>23.33</v>
       </c>
       <c r="J155" s="6" t="n">
         <v/>
       </c>
       <c r="K155" t="n">
-        <v>60.48</v>
+        <v>31.1</v>
       </c>
       <c r="L155" s="6" t="n">
         <v/>
@@ -12498,37 +12549,37 @@
     </row>
     <row r="156" spans="1:21">
       <c r="A156" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B156" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="C156" t="n">
         <v/>
       </c>
       <c r="D156" s="6" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="E156" t="n">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="F156" s="6" t="n">
         <v/>
       </c>
       <c r="G156" t="n">
-        <v>78.67</v>
+        <v>218.67</v>
       </c>
       <c r="H156" s="6" t="n">
         <v/>
       </c>
       <c r="I156" t="n">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="J156" s="6" t="n">
         <v/>
       </c>
       <c r="K156" t="n">
-        <v>78.67</v>
+        <v>218.67</v>
       </c>
       <c r="L156" s="6" t="n">
         <v/>
@@ -12563,37 +12614,37 @@
     </row>
     <row r="157" spans="1:21">
       <c r="A157" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B157" t="s">
-        <v>595</v>
-      </c>
-      <c r="C157" t="n">
-        <v/>
+        <v>607</v>
+      </c>
+      <c r="C157" t="s">
+        <v>608</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="E157" t="n">
-        <v>65</v>
+        <v>31.49</v>
       </c>
       <c r="F157" s="6" t="n">
         <v/>
       </c>
       <c r="G157" t="n">
-        <v>86.67</v>
+        <v>41.99</v>
       </c>
       <c r="H157" s="6" t="n">
         <v/>
       </c>
       <c r="I157" t="n">
-        <v>65</v>
+        <v>31.49</v>
       </c>
       <c r="J157" s="6" t="n">
         <v/>
       </c>
       <c r="K157" t="n">
-        <v>86.67</v>
+        <v>41.99</v>
       </c>
       <c r="L157" s="6" t="n">
         <v/>
@@ -12628,37 +12679,37 @@
     </row>
     <row r="158" spans="1:21">
       <c r="A158" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="B158" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="C158" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>90</v>
+        <v>613</v>
       </c>
       <c r="E158" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="F158" s="6" t="n">
+        <v/>
+      </c>
+      <c r="G158" t="n">
         <v>60.48</v>
       </c>
-      <c r="F158" s="6" t="n">
-        <v/>
-      </c>
-      <c r="G158" t="n">
-        <v>80.64</v>
-      </c>
       <c r="H158" s="6" t="n">
         <v/>
       </c>
       <c r="I158" t="n">
+        <v>48.99</v>
+      </c>
+      <c r="J158" s="6" t="n">
+        <v/>
+      </c>
+      <c r="K158" t="n">
         <v>65.31999999999999</v>
-      </c>
-      <c r="J158" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K158" t="n">
-        <v>87.09</v>
       </c>
       <c r="L158" s="6" t="n">
         <v/>
@@ -12693,37 +12744,37 @@
     </row>
     <row r="159" spans="1:21">
       <c r="A159" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="B159" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="C159" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="E159" t="n">
-        <v>80.64</v>
+        <v>23.62</v>
       </c>
       <c r="F159" s="6" t="n">
         <v/>
       </c>
       <c r="G159" t="n">
-        <v>107.52</v>
+        <v>31.49</v>
       </c>
       <c r="H159" s="6" t="n">
         <v/>
       </c>
       <c r="I159" t="n">
-        <v>80.64</v>
+        <v>23.62</v>
       </c>
       <c r="J159" s="6" t="n">
         <v/>
       </c>
       <c r="K159" t="n">
-        <v>107.52</v>
+        <v>31.49</v>
       </c>
       <c r="L159" s="6" t="n">
         <v/>
@@ -12758,37 +12809,37 @@
     </row>
     <row r="160" spans="1:21">
       <c r="A160" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="B160" t="s">
-        <v>605</v>
-      </c>
-      <c r="C160" t="s">
-        <v>606</v>
+        <v>619</v>
+      </c>
+      <c r="C160" t="n">
+        <v/>
       </c>
       <c r="D160" s="6" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="E160" t="n">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="F160" s="6" t="n">
         <v/>
       </c>
       <c r="G160" t="n">
-        <v>56</v>
+        <v>185.33</v>
       </c>
       <c r="H160" s="6" t="n">
         <v/>
       </c>
       <c r="I160" t="n">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="J160" s="6" t="n">
         <v/>
       </c>
       <c r="K160" t="n">
-        <v>56</v>
+        <v>185.33</v>
       </c>
       <c r="L160" s="6" t="n">
         <v/>
@@ -12823,37 +12874,37 @@
     </row>
     <row r="161" spans="1:21">
       <c r="A161" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="B161" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="C161" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="E161" t="n">
-        <v>49.88</v>
+        <v>131.3</v>
       </c>
       <c r="F161" s="6" t="n">
         <v/>
       </c>
       <c r="G161" t="n">
-        <v>66.51000000000001</v>
+        <v>175.07</v>
       </c>
       <c r="H161" s="6" t="n">
         <v/>
       </c>
       <c r="I161" t="n">
-        <v>49.88</v>
+        <v>131.3</v>
       </c>
       <c r="J161" s="6" t="n">
         <v/>
       </c>
       <c r="K161" t="n">
-        <v>66.51000000000001</v>
+        <v>175.07</v>
       </c>
       <c r="L161" s="6" t="n">
         <v/>
@@ -12888,37 +12939,37 @@
     </row>
     <row r="162" spans="1:21">
       <c r="A162" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="B162" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="C162" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>389</v>
+        <v>628</v>
       </c>
       <c r="E162" t="n">
-        <v>55.44</v>
+        <v>80.64</v>
       </c>
       <c r="F162" s="6" t="n">
         <v/>
       </c>
       <c r="G162" t="n">
-        <v>73.92</v>
+        <v>107.52</v>
       </c>
       <c r="H162" s="6" t="n">
         <v/>
       </c>
       <c r="I162" t="n">
-        <v>59.88</v>
+        <v>87.09</v>
       </c>
       <c r="J162" s="6" t="n">
         <v/>
       </c>
       <c r="K162" t="n">
-        <v>79.83</v>
+        <v>116.12</v>
       </c>
       <c r="L162" s="6" t="n">
         <v/>
@@ -12953,37 +13004,37 @@
     </row>
     <row r="163" spans="1:21">
       <c r="A163" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="B163" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="C163" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>158</v>
+        <v>632</v>
       </c>
       <c r="E163" t="n">
-        <v>45.62</v>
+        <v>55.13</v>
       </c>
       <c r="F163" s="6" t="n">
         <v/>
       </c>
       <c r="G163" t="n">
-        <v>60.83</v>
+        <v>73.51000000000001</v>
       </c>
       <c r="H163" s="6" t="n">
         <v/>
       </c>
       <c r="I163" t="n">
-        <v>49.27</v>
+        <v>59.54</v>
       </c>
       <c r="J163" s="6" t="n">
         <v/>
       </c>
       <c r="K163" t="n">
-        <v>65.7</v>
+        <v>79.39</v>
       </c>
       <c r="L163" s="6" t="n">
         <v/>
@@ -13018,37 +13069,37 @@
     </row>
     <row r="164" spans="1:21">
       <c r="A164" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="B164" t="s">
-        <v>619</v>
-      </c>
-      <c r="C164" t="n">
-        <v/>
+        <v>634</v>
+      </c>
+      <c r="C164" t="s">
+        <v>635</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="E164" t="n">
-        <v>159.25</v>
+        <v>44.42</v>
       </c>
       <c r="F164" s="6" t="n">
         <v/>
       </c>
       <c r="G164" t="n">
-        <v>212.33</v>
+        <v>59.23</v>
       </c>
       <c r="H164" s="6" t="n">
         <v/>
       </c>
       <c r="I164" t="n">
-        <v>159.25</v>
+        <v>44.42</v>
       </c>
       <c r="J164" s="6" t="n">
         <v/>
       </c>
       <c r="K164" t="n">
-        <v>212.33</v>
+        <v>59.23</v>
       </c>
       <c r="L164" s="6" t="n">
         <v/>
@@ -13083,37 +13134,37 @@
     </row>
     <row r="165" spans="1:21">
       <c r="A165" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="B165" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="C165" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="E165" t="n">
-        <v>60.48</v>
+        <v>121.9</v>
       </c>
       <c r="F165" s="6" t="n">
         <v/>
       </c>
       <c r="G165" t="n">
-        <v>80.64</v>
+        <v>162.53</v>
       </c>
       <c r="H165" s="6" t="n">
         <v/>
       </c>
       <c r="I165" t="n">
-        <v>65.31999999999999</v>
+        <v>131.65</v>
       </c>
       <c r="J165" s="6" t="n">
         <v/>
       </c>
       <c r="K165" t="n">
-        <v>87.09</v>
+        <v>175.53</v>
       </c>
       <c r="L165" s="6" t="n">
         <v/>
@@ -13148,16 +13199,16 @@
     </row>
     <row r="166" spans="1:21">
       <c r="A166" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="B166" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="C166" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="E166" t="n">
         <v>90.72</v>
@@ -13213,16 +13264,16 @@
     </row>
     <row r="167" spans="1:21">
       <c r="A167" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="B167" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="C167" t="n">
         <v/>
       </c>
       <c r="D167" s="6" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="E167" t="n">
         <v>165</v>
@@ -13278,16 +13329,16 @@
     </row>
     <row r="168" spans="1:21">
       <c r="A168" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="B168" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="C168" t="n">
         <v/>
       </c>
       <c r="D168" s="6" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="E168" t="n">
         <v>150</v>
@@ -13343,16 +13394,16 @@
     </row>
     <row r="169" spans="1:21">
       <c r="A169" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="B169" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="C169" t="n">
         <v/>
       </c>
       <c r="D169" s="6" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="E169" t="n">
         <v>150</v>
@@ -13408,16 +13459,16 @@
     </row>
     <row r="170" spans="1:21">
       <c r="A170" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="B170" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="C170" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="E170" t="n">
         <v>90.72</v>
@@ -13473,16 +13524,16 @@
     </row>
     <row r="171" spans="1:21">
       <c r="A171" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="B171" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="C171" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="E171" t="n">
         <v>42</v>
@@ -13538,16 +13589,16 @@
     </row>
     <row r="172" spans="1:21">
       <c r="A172" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="B172" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="C172" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="E172" t="n">
         <v>73.5</v>
@@ -13603,16 +13654,16 @@
     </row>
     <row r="173" spans="1:21">
       <c r="A173" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="B173" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="C173" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>571</v>
+        <v>669</v>
       </c>
       <c r="E173" t="n">
         <v>60.38</v>
@@ -13668,16 +13719,16 @@
     </row>
     <row r="174" spans="1:21">
       <c r="A174" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="B174" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="C174" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="E174" t="n">
         <v>60.48</v>
@@ -13733,16 +13784,16 @@
     </row>
     <row r="175" spans="1:21">
       <c r="A175" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="B175" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="C175" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="E175" t="n">
         <v>31.49</v>
@@ -13798,16 +13849,16 @@
     </row>
     <row r="176" spans="1:21">
       <c r="A176" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="B176" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="C176" t="n">
         <v/>
       </c>
       <c r="D176" s="6" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="E176" t="n">
         <v>125</v>
@@ -13863,16 +13914,16 @@
     </row>
     <row r="177" spans="1:21">
       <c r="A177" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="B177" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="C177" t="n">
         <v/>
       </c>
       <c r="D177" s="6" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="E177" t="n">
         <v>165</v>
@@ -13928,16 +13979,16 @@
     </row>
     <row r="178" spans="1:21">
       <c r="A178" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="B178" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="C178" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="E178" t="n">
         <v>42.4</v>
@@ -13993,16 +14044,16 @@
     </row>
     <row r="179" spans="1:21">
       <c r="A179" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="B179" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="C179" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="E179" t="n">
         <v>17.33</v>
@@ -14058,16 +14109,16 @@
     </row>
     <row r="180" spans="1:21">
       <c r="A180" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="B180" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="C180" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="E180" t="n">
         <v>12.6</v>
@@ -14123,16 +14174,16 @@
     </row>
     <row r="181" spans="1:21">
       <c r="A181" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="B181" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="C181" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="E181" t="n">
         <v>42</v>
